--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>0.3497567887281834</v>
       </c>
-      <c r="BA2">
-        <v>0.3497567887281834</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>-0.06966572625950762</v>
       </c>
-      <c r="BA3">
-        <v>-0.06966572625950762</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>-0.01924940494492629</v>
-      </c>
       <c r="C4">
         <v>-0.5718192715580426</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>-0.5718192715580426</v>
       </c>
-      <c r="BA4">
-        <v>-0.5718192715580426</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>-0.06663284783358531</v>
-      </c>
       <c r="C5">
         <v>0.02513501597327435</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.02513501597327435</v>
       </c>
-      <c r="BA5">
-        <v>0.02513501597327435</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.03629218069820918</v>
-      </c>
-      <c r="C6">
-        <v>-0.2405878515234746</v>
-      </c>
       <c r="D6">
         <v>-0.6777052466944516</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-0.6777052466944516</v>
       </c>
-      <c r="BA6">
-        <v>-0.6777052466944516</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>-0.2565881803834</v>
-      </c>
       <c r="D7">
         <v>-0.04687708722170142</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.04687708722170142</v>
       </c>
-      <c r="BA7">
-        <v>-0.04687708722170142</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>-0.05965445889038837</v>
-      </c>
-      <c r="D8">
-        <v>0.1154633794187413</v>
-      </c>
       <c r="E8">
         <v>-0.6491824449565908</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-0.6491824449565908</v>
       </c>
-      <c r="BA8">
-        <v>-0.6491824449565908</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.08248866744956523</v>
-      </c>
-      <c r="D9">
-        <v>0.1876873037273885</v>
-      </c>
       <c r="E9">
         <v>-0.03143360567770964</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>-0.03143360567770964</v>
       </c>
-      <c r="BA9">
-        <v>-0.03143360567770964</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.2156316506194657</v>
-      </c>
-      <c r="D10">
-        <v>0.2468174487364038</v>
-      </c>
-      <c r="E10">
-        <v>-0.08585223680834608</v>
-      </c>
       <c r="F10">
         <v>0.3822062224503651</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.3822062224503651</v>
       </c>
-      <c r="BA10">
-        <v>0.3822062224503651</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>-0.2455860504312717</v>
-      </c>
-      <c r="D11">
-        <v>-0.0893103313603231</v>
-      </c>
-      <c r="E11">
-        <v>-0.006925139308233144</v>
-      </c>
       <c r="F11">
         <v>-0.04722993886919886</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>-0.04722993886919886</v>
       </c>
-      <c r="BA11">
-        <v>-0.04722993886919886</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>-0.2356209154829358</v>
-      </c>
-      <c r="D12">
-        <v>-0.08678333345427362</v>
-      </c>
-      <c r="E12">
-        <v>0.06785951712430745</v>
-      </c>
-      <c r="F12">
-        <v>-0.04806623405398856</v>
-      </c>
       <c r="G12">
         <v>-0.5591348797726128</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>-0.5591348797726128</v>
       </c>
-      <c r="BA12">
-        <v>-0.5591348797726128</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>-0.05314863654464545</v>
-      </c>
-      <c r="D13">
-        <v>-0.1014685640540208</v>
-      </c>
-      <c r="E13">
-        <v>-0.02967973296111875</v>
-      </c>
-      <c r="F13">
-        <v>-0.1648210426608209</v>
-      </c>
       <c r="G13">
         <v>-0.3824674568541571</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>-0.3824674568541571</v>
       </c>
-      <c r="BA13">
-        <v>-0.3824674568541571</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>-0.08205876700676965</v>
-      </c>
-      <c r="D14">
-        <v>-0.1013606235564805</v>
-      </c>
-      <c r="E14">
-        <v>-0.1366591282222051</v>
-      </c>
-      <c r="F14">
-        <v>-0.0927936968363893</v>
-      </c>
-      <c r="G14">
-        <v>-0.1818501944989162</v>
-      </c>
       <c r="H14">
         <v>0.3</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.3</v>
       </c>
-      <c r="BA14">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>-0.1508382780048146</v>
-      </c>
-      <c r="D15">
-        <v>-0.1020022133015831</v>
-      </c>
-      <c r="E15">
-        <v>-0.1803108528002647</v>
-      </c>
-      <c r="F15">
-        <v>-0.194841642332709</v>
-      </c>
-      <c r="G15">
-        <v>0.1084761866134877</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>-0.1299151686198972</v>
-      </c>
-      <c r="D16">
-        <v>-0.101997605035558</v>
-      </c>
-      <c r="E16">
-        <v>-0.1930994228022455</v>
-      </c>
-      <c r="F16">
-        <v>-0.1677005324409458</v>
-      </c>
-      <c r="G16">
-        <v>0.08763903769551813</v>
-      </c>
-      <c r="H16">
-        <v>-0.1</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>-0.1053602525526499</v>
-      </c>
-      <c r="D17">
-        <v>-0.1020256357609547</v>
-      </c>
-      <c r="E17">
-        <v>-0.1998043373850451</v>
-      </c>
-      <c r="F17">
-        <v>-0.1805465306614776</v>
-      </c>
-      <c r="G17">
-        <v>0.107459935297861</v>
-      </c>
-      <c r="H17">
-        <v>-0.1</v>
-      </c>
       <c r="I17">
         <v>-0.07670146240877694</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>-0.07670146240877694</v>
       </c>
-      <c r="BA17">
-        <v>-0.07670146240877694</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>-0.1170557578356465</v>
-      </c>
-      <c r="D18">
-        <v>-0.1020254391292479</v>
-      </c>
-      <c r="E18">
-        <v>-0.200893093139403</v>
-      </c>
-      <c r="F18">
-        <v>-0.175902910647825</v>
-      </c>
-      <c r="G18">
-        <v>0.086319785985172</v>
-      </c>
-      <c r="H18">
-        <v>-0.1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>-0.2</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>-0.2</v>
       </c>
-      <c r="BA18">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>-0.1252445599647878</v>
-      </c>
-      <c r="D19">
-        <v>-0.1020266637779875</v>
-      </c>
-      <c r="E19">
-        <v>-0.2021821160658965</v>
-      </c>
-      <c r="F19">
-        <v>-0.1777875431832259</v>
-      </c>
-      <c r="G19">
-        <v>-0.1762261923228023</v>
-      </c>
-      <c r="H19">
-        <v>-0.1911311168400567</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0.1</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.1</v>
       </c>
-      <c r="BA19">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>-0.1194637636226241</v>
-      </c>
-      <c r="D20">
-        <v>-0.1020266553926423</v>
-      </c>
-      <c r="E20">
-        <v>-0.2020622388106192</v>
-      </c>
-      <c r="F20">
-        <v>-0.177061352911214</v>
-      </c>
-      <c r="G20">
-        <v>-0.1720552496308445</v>
-      </c>
-      <c r="H20">
-        <v>-0.1751572767049294</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
-        <v>0.1</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.2024074861233207</v>
-      </c>
-      <c r="F21">
-        <v>-0.1773476427894674</v>
-      </c>
-      <c r="G21">
-        <v>-0.1549979699764663</v>
-      </c>
-      <c r="H21">
-        <v>-0.1577534384889842</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>-0.2</v>
-      </c>
       <c r="K21">
         <v>-0.1</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>-0.1</v>
       </c>
-      <c r="BA21">
-        <v>-0.1</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.2022764939693219</v>
-      </c>
-      <c r="F22">
-        <v>-0.1772359176374389</v>
-      </c>
-      <c r="G22">
-        <v>-0.155451173420278</v>
-      </c>
-      <c r="H22">
-        <v>-0.1643454611510586</v>
-      </c>
-      <c r="I22">
-        <v>0.1</v>
-      </c>
-      <c r="J22">
-        <v>-0.2</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.16663203379367</v>
       </c>
       <c r="L22">
         <v>0.1</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.1</v>
       </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.2023982310882378</v>
-      </c>
-      <c r="F23">
-        <v>-0.1772797149731557</v>
-      </c>
-      <c r="G23">
-        <v>-0.1565574241263836</v>
-      </c>
-      <c r="H23">
-        <v>-0.1670484208473306</v>
-      </c>
-      <c r="I23">
-        <v>-0.1341568465704879</v>
-      </c>
-      <c r="J23">
-        <v>-0.1190772866647067</v>
-      </c>
       <c r="K23">
-        <v>0.1</v>
+        <v>-0.1409916389602608</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0</v>
       </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.2023307211504199</v>
-      </c>
-      <c r="F24">
-        <v>-0.1772625801601851</v>
-      </c>
-      <c r="G24">
-        <v>-0.1565161311318682</v>
-      </c>
-      <c r="H24">
-        <v>-0.1651131812258911</v>
-      </c>
-      <c r="I24">
-        <v>-0.1333919775820372</v>
-      </c>
-      <c r="J24">
-        <v>-0.1282819040891003</v>
-      </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>-0.1323766792204902</v>
       </c>
       <c r="L24">
-        <v>0.1</v>
+        <v>-0.1665318999857823</v>
       </c>
       <c r="M24">
         <v>0.3</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0.3</v>
       </c>
-      <c r="BA24">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>-0.1564445118286816</v>
-      </c>
-      <c r="H25">
-        <v>-0.1648531509821267</v>
-      </c>
-      <c r="I25">
-        <v>-0.1084562113492576</v>
-      </c>
-      <c r="J25">
-        <v>-0.1428548269741837</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>-0.1379267324261071</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.1355777202338863</v>
       </c>
       <c r="M25">
         <v>-0.3</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>-0.3</v>
       </c>
-      <c r="BA25">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>-0.156447963710082</v>
-      </c>
-      <c r="H26">
-        <v>-0.1653277734348887</v>
-      </c>
-      <c r="I26">
-        <v>-0.1097549844532573</v>
-      </c>
-      <c r="J26">
-        <v>-0.1394205196231974</v>
-      </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.1387703001694831</v>
       </c>
       <c r="L26">
-        <v>0.1</v>
+        <v>-0.1124069064532738</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-0.1377403071079323</v>
       </c>
       <c r="N26">
         <v>-0.2</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>-0.2</v>
       </c>
-      <c r="BA26">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>-0.1564525920996746</v>
-      </c>
-      <c r="H27">
-        <v>-0.1653022284350787</v>
-      </c>
-      <c r="I27">
-        <v>-0.1123510156418368</v>
-      </c>
-      <c r="J27">
-        <v>-0.1369982547186729</v>
-      </c>
       <c r="K27">
-        <v>-0.1152157343538149</v>
+        <v>-0.1376924439944413</v>
       </c>
       <c r="L27">
-        <v>-0.1136575556319998</v>
+        <v>-0.1193763150402017</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-0.08424677152779303</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>-0.1564523179980815</v>
-      </c>
-      <c r="H28">
-        <v>-0.1652014821116348</v>
-      </c>
-      <c r="I28">
-        <v>-0.1120857789221828</v>
-      </c>
-      <c r="J28">
-        <v>-0.1379366759352247</v>
-      </c>
       <c r="K28">
-        <v>-0.1114080965330362</v>
+        <v>-0.1376744676737065</v>
       </c>
       <c r="L28">
-        <v>-0.114805664433413</v>
+        <v>-0.1223551533367281</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>-0.1076220225010179</v>
       </c>
       <c r="N28">
-        <v>0.1</v>
+        <v>-0.1052856501481252</v>
       </c>
       <c r="O28">
         <v>0.07231168587756959</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.07231168587756959</v>
       </c>
-      <c r="BA28">
-        <v>0.07231168587756959</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>-0.1118218562536034</v>
-      </c>
-      <c r="J29">
-        <v>-0.1382974862520912</v>
-      </c>
       <c r="K29">
-        <v>-0.09834371927531209</v>
+        <v>-0.1378661567070745</v>
       </c>
       <c r="L29">
-        <v>-0.09447522474931642</v>
+        <v>-0.1209919960318456</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0.1115762065844965</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0.122435976038597</v>
       </c>
       <c r="O29">
         <v>-0.06367835427788604</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>-0.06367835427788604</v>
       </c>
-      <c r="BA29">
-        <v>-0.06367835427788604</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>-0.1118630270169832</v>
-      </c>
-      <c r="J30">
-        <v>-0.1380753091341846</v>
-      </c>
       <c r="K30">
-        <v>-0.09921137824899584</v>
+        <v>-0.1378461365120827</v>
       </c>
       <c r="L30">
-        <v>-0.09516040778550891</v>
+        <v>-0.1206520403256514</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>-0.1085520375579933</v>
       </c>
       <c r="N30">
-        <v>0.1</v>
+        <v>-0.106858052038941</v>
       </c>
       <c r="O30">
-        <v>0.04684611228784746</v>
+        <v>-0.1263630208927559</v>
       </c>
       <c r="P30">
         <v>0.08504296140338079</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.08504296140338079</v>
       </c>
-      <c r="BA30">
-        <v>0.08504296140338079</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>-0.1118891649949017</v>
-      </c>
-      <c r="J31">
-        <v>-0.1380309363134153</v>
-      </c>
       <c r="K31">
-        <v>-0.1006783495039798</v>
+        <v>-0.1378148536286004</v>
       </c>
       <c r="L31">
-        <v>-0.09706390329034466</v>
+        <v>-0.120896323414647</v>
       </c>
       <c r="M31">
-        <v>-0.09981428768183331</v>
+        <v>-0.1083783480908609</v>
       </c>
       <c r="N31">
-        <v>-0.1103613911202079</v>
+        <v>-0.105978436494542</v>
       </c>
       <c r="O31">
-        <v>0.02306574132610498</v>
+        <v>-0.1028691547982214</v>
       </c>
       <c r="P31">
         <v>0.0003037193523987569</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.0003037193523987569</v>
       </c>
-      <c r="BA31">
-        <v>0.0003037193523987569</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>-0.1118834982018026</v>
-      </c>
-      <c r="J32">
-        <v>-0.1380788687307888</v>
-      </c>
-      <c r="K32">
-        <v>-0.1005305372207012</v>
-      </c>
       <c r="L32">
-        <v>-0.09692449072798824</v>
+        <v>-0.1209269540972147</v>
       </c>
       <c r="M32">
-        <v>-0.09357703879839624</v>
+        <v>-0.1087386862002369</v>
       </c>
       <c r="N32">
-        <v>-0.1107925674064129</v>
+        <v>-0.1081337078676055</v>
       </c>
       <c r="O32">
-        <v>0.02681128416743932</v>
+        <v>-0.0959513134074895</v>
       </c>
       <c r="P32">
-        <v>-0.003143006979458754</v>
+        <v>-0.1167989450062473</v>
       </c>
       <c r="Q32">
         <v>-0.01801114345337739</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>-0.01801114345337739</v>
       </c>
-      <c r="BA32">
-        <v>-0.01801114345337739</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>-0.1003674792334215</v>
-      </c>
       <c r="L33">
-        <v>-0.09674921049721931</v>
+        <v>-0.1208859659091552</v>
       </c>
       <c r="M33">
-        <v>-0.08095341166681054</v>
+        <v>-0.1087255013698168</v>
       </c>
       <c r="N33">
-        <v>-0.08631048759548665</v>
+        <v>-0.1080564241568642</v>
       </c>
       <c r="O33">
-        <v>-0.04485916901477623</v>
+        <v>-0.09971808183938671</v>
       </c>
       <c r="P33">
-        <v>-0.01420714100065538</v>
+        <v>-0.09953200339216807</v>
       </c>
       <c r="Q33">
         <v>0.03826442504165321</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.03826442504165321</v>
       </c>
-      <c r="BA33">
-        <v>0.03826442504165321</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>-0.1003897899106883</v>
-      </c>
-      <c r="L34">
-        <v>-0.09676929409796924</v>
-      </c>
       <c r="M34">
-        <v>-0.08216565665755712</v>
+        <v>-0.1086856658427456</v>
       </c>
       <c r="N34">
-        <v>-0.0875633584342347</v>
+        <v>-0.1077761902111442</v>
       </c>
       <c r="O34">
-        <v>-0.02285301574382478</v>
+        <v>-0.1003938719328647</v>
       </c>
       <c r="P34">
-        <v>0.00767108999817942</v>
+        <v>-0.08638798349346678</v>
       </c>
       <c r="Q34">
-        <v>-0.1019677743295293</v>
+        <v>-0.09653187095405368</v>
       </c>
       <c r="R34">
         <v>-0.02232391446496779</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>-0.02232391446496779</v>
       </c>
-      <c r="BA34">
-        <v>-0.02232391446496779</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>-0.100407719913061</v>
-      </c>
-      <c r="L35">
-        <v>-0.09678515142850036</v>
-      </c>
       <c r="M35">
-        <v>-0.08291095146758985</v>
+        <v>-0.1086908121657579</v>
       </c>
       <c r="N35">
-        <v>-0.09034325657709641</v>
+        <v>-0.1078117783175563</v>
       </c>
       <c r="O35">
-        <v>-0.08976146810762137</v>
+        <v>-0.09982230298635079</v>
       </c>
       <c r="P35">
-        <v>-0.09281242047095378</v>
+        <v>-0.08926502629110261</v>
       </c>
       <c r="Q35">
-        <v>-0.04420399108875898</v>
+        <v>-0.09590463795331965</v>
       </c>
       <c r="R35">
         <v>-0.06208406292622634</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>-0.06208406292622634</v>
       </c>
-      <c r="BA35">
-        <v>-0.06208406292622634</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>-0.1004045731769563</v>
-      </c>
-      <c r="L36">
-        <v>-0.096782625151205</v>
-      </c>
-      <c r="M36">
-        <v>-0.08278437806402693</v>
-      </c>
       <c r="N36">
-        <v>-0.09004962889777998</v>
+        <v>-0.1078459102773012</v>
       </c>
       <c r="O36">
-        <v>-0.08898282112943703</v>
+        <v>-0.09977148860047808</v>
       </c>
       <c r="P36">
-        <v>-0.09043732130736638</v>
+        <v>-0.09068416890114894</v>
       </c>
       <c r="Q36">
-        <v>0.01627989965737552</v>
+        <v>-0.08132618783464103</v>
       </c>
       <c r="R36">
-        <v>-0.09630710425613376</v>
+        <v>-0.08727247750234152</v>
       </c>
       <c r="S36">
         <v>0.006968764489216402</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.006968764489216402</v>
       </c>
-      <c r="BA36">
-        <v>0.006968764489216402</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>-0.08274388694323476</v>
-      </c>
       <c r="N37">
-        <v>-0.08974203237390496</v>
+        <v>-0.1078380876584136</v>
       </c>
       <c r="O37">
-        <v>-0.08175075451642244</v>
+        <v>-0.09985435589730186</v>
       </c>
       <c r="P37">
-        <v>-0.07993557123573171</v>
+        <v>-0.09025092680876227</v>
       </c>
       <c r="Q37">
-        <v>-0.01836308753882432</v>
+        <v>-0.08212166304366333</v>
       </c>
       <c r="R37">
-        <v>-0.1212723864535662</v>
+        <v>-0.08200047770601192</v>
       </c>
       <c r="S37">
         <v>-0.121948034731228</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>-0.121948034731228</v>
       </c>
-      <c r="BA37">
-        <v>-0.121948034731228</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>-0.08275472019414237</v>
-      </c>
-      <c r="N38">
-        <v>-0.08979254418457525</v>
-      </c>
       <c r="O38">
-        <v>-0.08217792422569901</v>
+        <v>-0.09985519834029094</v>
       </c>
       <c r="P38">
-        <v>-0.08067613440065111</v>
+        <v>-0.09010504128288227</v>
       </c>
       <c r="Q38">
-        <v>0.03808599403574435</v>
+        <v>-0.08366203676841302</v>
       </c>
       <c r="R38">
-        <v>-0.03047052651039523</v>
+        <v>-0.0795996804880582</v>
       </c>
       <c r="S38">
-        <v>-0.04137894554115303</v>
+        <v>-0.08579910877199971</v>
       </c>
       <c r="T38">
         <v>-0.0361595126957486</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>-0.0361595126957486</v>
       </c>
-      <c r="BA38">
-        <v>-0.0361595126957486</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>-0.0827566674829702</v>
-      </c>
-      <c r="N39">
-        <v>-0.08982562065611285</v>
-      </c>
       <c r="O39">
-        <v>-0.08294338300484287</v>
+        <v>-0.09984367124138999</v>
       </c>
       <c r="P39">
-        <v>-0.08175073645368827</v>
+        <v>-0.09016622304193057</v>
       </c>
       <c r="Q39">
-        <v>-0.08499393780777845</v>
+        <v>-0.08349895238239896</v>
       </c>
       <c r="R39">
-        <v>-0.09420006237342246</v>
+        <v>-0.08025718253738226</v>
       </c>
       <c r="S39">
-        <v>-0.04757626476598446</v>
+        <v>-0.07418025488041032</v>
       </c>
       <c r="T39">
         <v>-0.08573317974146363</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>-0.08573317974146363</v>
       </c>
-      <c r="BA39">
-        <v>-0.08573317974146363</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>-0.08275583719215567</v>
-      </c>
-      <c r="N40">
-        <v>-0.08981798712680394</v>
-      </c>
-      <c r="O40">
-        <v>-0.08286071600304715</v>
-      </c>
       <c r="P40">
-        <v>-0.08162241138500614</v>
+        <v>-0.09018022373627745</v>
       </c>
       <c r="Q40">
-        <v>-0.08561749867063831</v>
+        <v>-0.0833401388782662</v>
       </c>
       <c r="R40">
-        <v>-0.01834967854175829</v>
+        <v>-0.08047915426499259</v>
       </c>
       <c r="S40">
-        <v>0.05542566282283581</v>
+        <v>-0.07841533675488922</v>
       </c>
       <c r="T40">
-        <v>-0.02083327549602616</v>
+        <v>-0.08180790295125864</v>
       </c>
       <c r="U40">
         <v>0.004670068289308601</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.004670068289308601</v>
       </c>
-      <c r="BA40">
-        <v>0.004670068289308601</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>-0.08278147224636226</v>
-      </c>
       <c r="P41">
-        <v>-0.08151490199683853</v>
+        <v>-0.09017197877087038</v>
       </c>
       <c r="Q41">
-        <v>-0.07312240930591238</v>
+        <v>-0.08336573970768051</v>
       </c>
       <c r="R41">
-        <v>-0.01476971233224905</v>
+        <v>-0.08040057911545136</v>
       </c>
       <c r="S41">
-        <v>0.03463616994752567</v>
+        <v>-0.07941862190721762</v>
       </c>
       <c r="T41">
-        <v>-0.03184518845032182</v>
+        <v>-0.07698927111226372</v>
       </c>
       <c r="U41">
         <v>0.04099992594395328</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.04099992594395328</v>
       </c>
-      <c r="BA41">
-        <v>0.04099992594395328</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>-0.08279420692399159</v>
-      </c>
-      <c r="P42">
-        <v>-0.0815334683590296</v>
-      </c>
       <c r="Q42">
-        <v>-0.0735765133224246</v>
+        <v>-0.08338167500542237</v>
       </c>
       <c r="R42">
-        <v>0.02085334117929367</v>
+        <v>-0.08038084283925362</v>
       </c>
       <c r="S42">
-        <v>0.03788800797382201</v>
+        <v>-0.07893853071560837</v>
       </c>
       <c r="T42">
-        <v>0.008711613936027967</v>
+        <v>-0.07760726719748756</v>
       </c>
       <c r="U42">
-        <v>0.07966967513966118</v>
+        <v>-0.08572656300448125</v>
       </c>
       <c r="V42">
         <v>0.05927521680271484</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.05927521680271484</v>
       </c>
-      <c r="BA42">
-        <v>0.05927521680271484</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>-0.08280221275328381</v>
-      </c>
-      <c r="P43">
-        <v>-0.08154395711064481</v>
-      </c>
       <c r="Q43">
-        <v>-0.07482359640189912</v>
+        <v>-0.08337810508470835</v>
       </c>
       <c r="R43">
-        <v>-0.08540710398089649</v>
+        <v>-0.08038993262712105</v>
       </c>
       <c r="S43">
-        <v>-0.08095886848508303</v>
+        <v>-0.07885703504723572</v>
       </c>
       <c r="T43">
-        <v>-0.04611682995959883</v>
+        <v>-0.07806474527014649</v>
       </c>
       <c r="U43">
-        <v>-0.008500237636735127</v>
+        <v>-0.08410420040922782</v>
       </c>
       <c r="V43">
-        <v>-0.02685488242386462</v>
+        <v>-0.08479738218742311</v>
       </c>
       <c r="W43">
         <v>0.04061467511413108</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.04061467511413108</v>
       </c>
-      <c r="BA43">
-        <v>0.04061467511413108</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>-0.08280045002497187</v>
-      </c>
-      <c r="P44">
-        <v>-0.08154150712305869</v>
-      </c>
-      <c r="Q44">
-        <v>-0.07472596365661455</v>
-      </c>
       <c r="R44">
-        <v>-0.08475860279001264</v>
+        <v>-0.08039159440466945</v>
       </c>
       <c r="S44">
-        <v>-0.07780745323799935</v>
+        <v>-0.07891001056603805</v>
       </c>
       <c r="T44">
-        <v>-0.02118563397038299</v>
+        <v>-0.0779813309327322</v>
       </c>
       <c r="U44">
-        <v>0.02532532151524159</v>
+        <v>-0.07143959640584802</v>
       </c>
       <c r="V44">
-        <v>-0.002888011283271125</v>
+        <v>-0.08174436933751299</v>
       </c>
       <c r="W44">
-        <v>0.03471876978339621</v>
+        <v>-0.08115212839291376</v>
       </c>
       <c r="X44">
         <v>0.08363338226171732</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>0.08363338226171732</v>
       </c>
-      <c r="BA44">
-        <v>0.08363338226171732</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>-0.07460366303671925</v>
-      </c>
       <c r="R45">
-        <v>-0.0739439723592199</v>
+        <v>-0.0803905703592509</v>
       </c>
       <c r="S45">
-        <v>-0.06695637929123351</v>
+        <v>-0.07891600255332396</v>
       </c>
       <c r="T45">
-        <v>-0.05384116796081011</v>
+        <v>-0.07793903878140496</v>
       </c>
       <c r="U45">
-        <v>0.0004531641949189306</v>
+        <v>-0.07212949830135057</v>
       </c>
       <c r="V45">
-        <v>0.06397921347425059</v>
+        <v>-0.06807548337146829</v>
       </c>
       <c r="W45">
-        <v>0.00303944842573689</v>
+        <v>-0.07640508927962868</v>
       </c>
       <c r="X45">
-        <v>-0.1162995206209061</v>
+        <v>-0.07432031974277531</v>
       </c>
       <c r="Y45">
         <v>-0.184542838621156</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>-0.184542838621156</v>
       </c>
-      <c r="BA45">
-        <v>-0.184542838621156</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>-0.07461861730230374</v>
-      </c>
-      <c r="R46">
-        <v>-0.07444601292137056</v>
-      </c>
       <c r="S46">
-        <v>-0.06756160955026795</v>
+        <v>-0.07891029175345388</v>
       </c>
       <c r="T46">
-        <v>-0.02737035130747983</v>
+        <v>-0.07794940079551965</v>
       </c>
       <c r="U46">
-        <v>0.02842624894702262</v>
+        <v>-0.07337319717336993</v>
       </c>
       <c r="V46">
-        <v>0.04654525283949716</v>
+        <v>-0.06882267258675757</v>
       </c>
       <c r="W46">
-        <v>0.01020274921383128</v>
+        <v>-0.06562762484471454</v>
       </c>
       <c r="X46">
-        <v>-0.04636032810675305</v>
+        <v>-0.07518053657389845</v>
       </c>
       <c r="Y46">
-        <v>-0.06590205847732168</v>
+        <v>-0.07573980227218985</v>
       </c>
       <c r="Z46">
         <v>-0.4</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>-0.4</v>
       </c>
-      <c r="BA46">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>-0.07463038854156573</v>
-      </c>
-      <c r="R47">
-        <v>-0.07552909482492109</v>
-      </c>
       <c r="S47">
-        <v>-0.06854312614542296</v>
+        <v>-0.07890993274302754</v>
       </c>
       <c r="T47">
-        <v>-0.07311439237144236</v>
+        <v>-0.07795318835929095</v>
       </c>
       <c r="U47">
-        <v>-0.06816582482954896</v>
+        <v>-0.0732521398522214</v>
       </c>
       <c r="V47">
-        <v>0.006446947431259998</v>
+        <v>-0.07010426518596953</v>
       </c>
       <c r="W47">
-        <v>0.03833228329195581</v>
+        <v>-0.06632480219053748</v>
       </c>
       <c r="X47">
-        <v>-0.04461341453244162</v>
+        <v>-0.06244763565353913</v>
       </c>
       <c r="Y47">
-        <v>-0.04359550700199635</v>
+        <v>-0.05546827007711069</v>
       </c>
       <c r="Z47">
-        <v>-0.3</v>
+        <v>-0.05848444460836684</v>
       </c>
       <c r="AA47">
         <v>-0.3200594507515429</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>-0.3200594507515429</v>
       </c>
-      <c r="BA47">
-        <v>-0.3200594507515429</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>-0.07462838620826527</v>
-      </c>
-      <c r="R48">
-        <v>-0.07543422303349033</v>
-      </c>
-      <c r="S48">
-        <v>-0.06845890165310459</v>
-      </c>
       <c r="T48">
-        <v>-0.07380913502633124</v>
+        <v>-0.07795196873835801</v>
       </c>
       <c r="U48">
-        <v>-0.06874987603023985</v>
+        <v>-0.07313222302321479</v>
       </c>
       <c r="V48">
-        <v>0.03315758758675723</v>
+        <v>-0.0699901518308446</v>
       </c>
       <c r="W48">
-        <v>0.03114545954469452</v>
+        <v>-0.06727170506879046</v>
       </c>
       <c r="X48">
-        <v>-0.008516189360521523</v>
+        <v>-0.06258826011791239</v>
       </c>
       <c r="Y48">
-        <v>0.005181906221472014</v>
+        <v>-0.0652586477426379</v>
       </c>
       <c r="Z48">
-        <v>-0.1</v>
+        <v>-0.03818157018948101</v>
       </c>
       <c r="AA48">
-        <v>-0.09134807509369489</v>
+        <v>-0.0568662409488894</v>
       </c>
       <c r="AB48">
         <v>0.1</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>0.1</v>
       </c>
-      <c r="BA48">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>-0.07532755000367268</v>
-      </c>
-      <c r="S49">
-        <v>-0.06837097609265841</v>
-      </c>
       <c r="T49">
-        <v>-0.06945012199197288</v>
+        <v>-0.0779516429783207</v>
       </c>
       <c r="U49">
-        <v>-0.06110895356236065</v>
+        <v>-0.07314937462809744</v>
       </c>
       <c r="V49">
-        <v>0.006015811313147119</v>
+        <v>-0.06987145767081175</v>
       </c>
       <c r="W49">
-        <v>0.01880959940213669</v>
+        <v>-0.06718538365194246</v>
       </c>
       <c r="X49">
-        <v>-0.02953394294260252</v>
+        <v>-0.06361121851907531</v>
       </c>
       <c r="Y49">
-        <v>-0.02076842369714289</v>
+        <v>-0.06675291225406826</v>
       </c>
       <c r="Z49">
-        <v>-0.1</v>
+        <v>-0.07410980708304747</v>
       </c>
       <c r="AA49">
-        <v>-0.03111260021239929</v>
+        <v>-0.05571479379217935</v>
       </c>
       <c r="AB49">
-        <v>-0.2</v>
+        <v>-0.04462278170665823</v>
       </c>
       <c r="AC49">
         <v>-0.2628511487790233</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>-0.2628511487790233</v>
       </c>
-      <c r="BA49">
-        <v>-0.2628511487790233</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>-0.07534152831312441</v>
-      </c>
-      <c r="S50">
-        <v>-0.06838128388132669</v>
-      </c>
-      <c r="T50">
-        <v>-0.06955698346838114</v>
-      </c>
       <c r="U50">
-        <v>-0.06119142966741166</v>
+        <v>-0.07316070898504902</v>
       </c>
       <c r="V50">
-        <v>0.03511010193444745</v>
+        <v>-0.06988631903399774</v>
       </c>
       <c r="W50">
-        <v>0.04641532780319219</v>
+        <v>-0.06710282267554916</v>
       </c>
       <c r="X50">
-        <v>-0.001973337278576459</v>
+        <v>-0.06358303260850913</v>
       </c>
       <c r="Y50">
-        <v>-0.0362815961882827</v>
+        <v>-0.06587996677457289</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-0.07599798518974696</v>
       </c>
       <c r="AA50">
-        <v>0.00185915755765452</v>
+        <v>-0.07938999869665245</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>-0.0937736824109425</v>
       </c>
       <c r="AC50">
-        <v>-0.1385507723021652</v>
+        <v>-0.09502223726992652</v>
       </c>
       <c r="AD50">
         <v>-0.3133720122661878</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>-0.3133720122661878</v>
       </c>
-      <c r="BA50">
-        <v>-0.3133720122661878</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>-0.07535184778235829</v>
-      </c>
-      <c r="S51">
-        <v>-0.06838908014819636</v>
-      </c>
-      <c r="T51">
-        <v>-0.06996550532857476</v>
-      </c>
       <c r="U51">
-        <v>-0.06179369934916943</v>
+        <v>-0.07315851421777161</v>
       </c>
       <c r="V51">
-        <v>-0.05890523897955399</v>
+        <v>-0.0698971688289081</v>
       </c>
       <c r="W51">
-        <v>-0.05752776363227848</v>
+        <v>-0.06711263424442385</v>
       </c>
       <c r="X51">
-        <v>-0.06387514954027014</v>
+        <v>-0.06350112674693846</v>
       </c>
       <c r="Y51">
-        <v>-0.02554289772924381</v>
+        <v>-0.06577349830380957</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-0.07221990309527958</v>
       </c>
       <c r="AA51">
-        <v>0.005028295396993225</v>
+        <v>-0.080245163462128</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-0.07842592304941573</v>
       </c>
       <c r="AC51">
-        <v>-0.06594154085815986</v>
+        <v>-0.06282861282434363</v>
       </c>
       <c r="AD51">
-        <v>-0.07066445558421618</v>
+        <v>-0.06837161685503697</v>
       </c>
       <c r="AE51">
         <v>0.5469624758293199</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.5469624758293199</v>
       </c>
-      <c r="BA51">
-        <v>0.5469624758293199</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>-0.075350005782347</v>
-      </c>
-      <c r="S52">
-        <v>-0.0683879047087519</v>
-      </c>
-      <c r="T52">
-        <v>-0.06993920638766581</v>
-      </c>
-      <c r="U52">
-        <v>-0.06177704558471175</v>
-      </c>
       <c r="V52">
-        <v>-0.06066608434608686</v>
+        <v>-0.06989538690434127</v>
       </c>
       <c r="W52">
-        <v>-0.05958590769413728</v>
+        <v>-0.06711977503521521</v>
       </c>
       <c r="X52">
-        <v>-0.06497517434681126</v>
+        <v>-0.06350474647425845</v>
       </c>
       <c r="Y52">
-        <v>-0.007131856755202386</v>
+        <v>-0.06585068260828836</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-0.07204721503303968</v>
       </c>
       <c r="AA52">
-        <v>0.02885798659458167</v>
+        <v>-0.0781393456801061</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-0.07269986020605479</v>
       </c>
       <c r="AC52">
-        <v>-0.007713403081713838</v>
+        <v>-0.07782661538781738</v>
       </c>
       <c r="AD52">
-        <v>-0.03789463622668837</v>
+        <v>-0.05919397995750646</v>
       </c>
       <c r="AE52">
-        <v>0.03195641478533889</v>
+        <v>-0.0619153297093352</v>
       </c>
       <c r="AF52">
         <v>1.1</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>1.1</v>
       </c>
-      <c r="BA52">
-        <v>1.1</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>-0.06990156512986362</v>
-      </c>
-      <c r="U53">
-        <v>-0.06172974463001656</v>
-      </c>
-      <c r="V53">
-        <v>-0.05415927650013636</v>
-      </c>
       <c r="W53">
-        <v>-0.05295023861274304</v>
+        <v>-0.06711871651008566</v>
       </c>
       <c r="X53">
-        <v>-0.06004681236954494</v>
+        <v>-0.06351128201601922</v>
       </c>
       <c r="Y53">
-        <v>-0.02517853440761524</v>
+        <v>-0.06585790433543405</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-0.0724443317863685</v>
       </c>
       <c r="AA53">
-        <v>0.01495008910623384</v>
+        <v>-0.07799546508996504</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-0.07432048967862472</v>
       </c>
       <c r="AC53">
-        <v>-0.01082081782717691</v>
+        <v>-0.08068285890889043</v>
       </c>
       <c r="AD53">
-        <v>-0.001604575016810911</v>
+        <v>-0.08447806429717264</v>
       </c>
       <c r="AE53">
-        <v>-0.03690691577635818</v>
+        <v>-0.1651553130391893</v>
       </c>
       <c r="AF53">
-        <v>-0.6</v>
+        <v>-0.4440571223929872</v>
       </c>
       <c r="AG53">
         <v>-0.4440571223929872</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>-0.4440571223929872</v>
       </c>
-      <c r="BA53">
-        <v>-0.4440571223929872</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>-0.06990554622245562</v>
-      </c>
-      <c r="U54">
-        <v>-0.06173185653933502</v>
-      </c>
-      <c r="V54">
-        <v>-0.05405489001523931</v>
-      </c>
-      <c r="W54">
-        <v>-0.05279994693145603</v>
-      </c>
       <c r="X54">
-        <v>-0.06004601035568277</v>
+        <v>-0.06351088281628429</v>
       </c>
       <c r="Y54">
-        <v>-0.01195058994285315</v>
+        <v>-0.06585113312319896</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-0.07245978129343578</v>
       </c>
       <c r="AA54">
-        <v>0.03395240001300984</v>
+        <v>-0.07818061698043011</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-0.07498491053785283</v>
       </c>
       <c r="AC54">
-        <v>-0.02406570491612221</v>
+        <v>-0.0793425852264313</v>
       </c>
       <c r="AD54">
-        <v>-0.006951595395129247</v>
+        <v>-0.08583665458055087</v>
       </c>
       <c r="AE54">
-        <v>-0.03160665421100612</v>
+        <v>-0.06978454291080759</v>
       </c>
       <c r="AF54">
-        <v>-1</v>
+        <v>-0.3946489247059852</v>
       </c>
       <c r="AG54">
-        <v>-0.03640588554249286</v>
+        <v>-0.7255945204468831</v>
       </c>
       <c r="AH54">
         <v>-0.7255945204468831</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>-0.7255945204468831</v>
       </c>
-      <c r="BA54">
-        <v>-0.7255945204468831</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>-0.06990895278926824</v>
-      </c>
-      <c r="U55">
-        <v>-0.0617355579208658</v>
-      </c>
-      <c r="V55">
-        <v>-0.05450517987747731</v>
-      </c>
-      <c r="W55">
-        <v>-0.05322351084248526</v>
-      </c>
-      <c r="X55">
-        <v>-0.06043686389459815</v>
-      </c>
       <c r="Y55">
-        <v>-0.04072082768501256</v>
+        <v>-0.06585068061130797</v>
       </c>
       <c r="Z55">
-        <v>-0.05420305857785194</v>
+        <v>-0.0724180581083034</v>
       </c>
       <c r="AA55">
-        <v>-0.04926980319831269</v>
+        <v>-0.07819945609213425</v>
       </c>
       <c r="AB55">
-        <v>-0.05570306945131681</v>
+        <v>-0.07481473330801301</v>
       </c>
       <c r="AC55">
-        <v>-0.01480966753093585</v>
+        <v>-0.07908918650824212</v>
       </c>
       <c r="AD55">
-        <v>-0.04944166332328925</v>
+        <v>-0.0832339385343069</v>
       </c>
       <c r="AE55">
-        <v>0.07813974366918612</v>
+        <v>-0.05832720860384158</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>0.01905584479468331</v>
       </c>
       <c r="AG55">
-        <v>0.008294862521336099</v>
+        <v>0.04385828550117932</v>
       </c>
       <c r="AH55">
-        <v>0.2069391876711988</v>
+        <v>-0.5292660609007143</v>
       </c>
       <c r="AI55">
         <v>-0.5292660609007143</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-0.5292660609007143</v>
       </c>
-      <c r="BA55">
-        <v>-0.5292660609007143</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>-0.06990844089698867</v>
-      </c>
-      <c r="U56">
-        <v>-0.06173532876849878</v>
-      </c>
-      <c r="V56">
-        <v>-0.05451119556086589</v>
-      </c>
-      <c r="W56">
-        <v>-0.05323431291134922</v>
-      </c>
-      <c r="X56">
-        <v>-0.06043007263788593</v>
-      </c>
-      <c r="Y56">
-        <v>-0.04358406812180816</v>
-      </c>
       <c r="Z56">
-        <v>-0.05988194561234032</v>
+        <v>-0.07241671724954561</v>
       </c>
       <c r="AA56">
-        <v>-0.06149396929554431</v>
+        <v>-0.07818337321891559</v>
       </c>
       <c r="AB56">
-        <v>-0.05911956109755299</v>
+        <v>-0.07473792195238127</v>
       </c>
       <c r="AC56">
-        <v>0.02684185942972113</v>
+        <v>-0.07920895622003497</v>
       </c>
       <c r="AD56">
-        <v>-0.02717991425556184</v>
+        <v>-0.08305112799117695</v>
       </c>
       <c r="AE56">
-        <v>-0.002258099676494402</v>
+        <v>-0.07306865361445355</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>0.0439385071296087</v>
       </c>
       <c r="AG56">
-        <v>-0.04892787175825383</v>
+        <v>0.290754149275148</v>
       </c>
       <c r="AH56">
-        <v>0.3243356571731152</v>
+        <v>0.1109804920890552</v>
       </c>
       <c r="AI56">
-        <v>-0.2499020898492627</v>
+        <v>-0.1550786956675604</v>
       </c>
       <c r="AJ56">
         <v>-0.1550786956675604</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>-0.1550786956675604</v>
       </c>
-      <c r="BA56">
-        <v>-0.1550786956675604</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>-0.054480037433783</v>
-      </c>
-      <c r="W57">
-        <v>-0.05320727966456938</v>
-      </c>
-      <c r="X57">
-        <v>-0.06039919544318779</v>
-      </c>
-      <c r="Y57">
-        <v>-0.03897371603670385</v>
-      </c>
-      <c r="Z57">
-        <v>-0.05252358629099413</v>
-      </c>
       <c r="AA57">
-        <v>-0.05042994315695783</v>
+        <v>-0.07818116550033725</v>
       </c>
       <c r="AB57">
-        <v>-0.05075511116775867</v>
+        <v>-0.07475567966329391</v>
       </c>
       <c r="AC57">
-        <v>0.01259277546018333</v>
+        <v>-0.0792314362688346</v>
       </c>
       <c r="AD57">
-        <v>-0.008266282929133548</v>
+        <v>-0.08331835903605912</v>
       </c>
       <c r="AE57">
-        <v>-0.003588878278792583</v>
+        <v>-0.07416655469803361</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>-0.06340763542157046</v>
       </c>
       <c r="AG57">
-        <v>-0.04627788463835342</v>
+        <v>-0.0359187242409764</v>
       </c>
       <c r="AH57">
-        <v>0.03862818084466152</v>
+        <v>0.1911906397929582</v>
       </c>
       <c r="AI57">
-        <v>-0.301987220327034</v>
+        <v>0.1781562313065951</v>
       </c>
       <c r="AJ57">
-        <v>0.2188137050645766</v>
+        <v>-2.168330733759602</v>
       </c>
       <c r="AK57">
         <v>-2.168330733759602</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>-2.168330733759602</v>
       </c>
-      <c r="BA57">
-        <v>-2.168330733759602</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>-0.05447970467902034</v>
-      </c>
-      <c r="W58">
-        <v>-0.05320651293002977</v>
-      </c>
-      <c r="X58">
-        <v>-0.06040027554771148</v>
-      </c>
-      <c r="Y58">
-        <v>-0.03839391745396686</v>
-      </c>
-      <c r="Z58">
-        <v>-0.05091937037586128</v>
-      </c>
-      <c r="AA58">
-        <v>-0.04735489324433242</v>
-      </c>
       <c r="AB58">
-        <v>-0.04971620858993068</v>
+        <v>-0.07476452906660444</v>
       </c>
       <c r="AC58">
-        <v>0.03207057760333551</v>
+        <v>-0.07922073355300741</v>
       </c>
       <c r="AD58">
-        <v>-0.03094958137485429</v>
+        <v>-0.08334162546654258</v>
       </c>
       <c r="AE58">
-        <v>-0.02719164318675447</v>
+        <v>-0.07191607768370006</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-0.0798551892427615</v>
       </c>
       <c r="AG58">
-        <v>-0.01068748065680952</v>
+        <v>-0.2008677947724473</v>
       </c>
       <c r="AH58">
-        <v>0.04797206524184022</v>
+        <v>-0.06429996764577053</v>
       </c>
       <c r="AI58">
-        <v>-0.2435822669317387</v>
+        <v>0.08218102505156744</v>
       </c>
       <c r="AJ58">
-        <v>0.02510063739400653</v>
+        <v>-0.7996333424267084</v>
       </c>
       <c r="AK58">
-        <v>0.04244805816963515</v>
+        <v>-0.03982694963614287</v>
       </c>
       <c r="AL58">
         <v>-0.03982694963614287</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>-0.03982694963614287</v>
       </c>
-      <c r="BA58">
-        <v>-0.03982694963614287</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>-0.05448186046455154</v>
-      </c>
-      <c r="W59">
-        <v>-0.05320823806219625</v>
-      </c>
-      <c r="X59">
-        <v>-0.06040270529379475</v>
-      </c>
-      <c r="Y59">
-        <v>-0.03912972434711763</v>
-      </c>
-      <c r="Z59">
-        <v>-0.05183100473515048</v>
-      </c>
-      <c r="AA59">
-        <v>-0.04866233252848842</v>
-      </c>
-      <c r="AB59">
-        <v>-0.05093997179225258</v>
-      </c>
       <c r="AC59">
-        <v>-0.05525616418508789</v>
+        <v>-0.07921873933070347</v>
       </c>
       <c r="AD59">
-        <v>-0.06613114964570835</v>
+        <v>-0.08331426000146522</v>
       </c>
       <c r="AE59">
-        <v>-0.0480886494990878</v>
+        <v>-0.07184585950377453</v>
       </c>
       <c r="AF59">
-        <v>-0.06561596162038666</v>
+        <v>-0.05291864924991312</v>
       </c>
       <c r="AG59">
-        <v>-0.0145798105761539</v>
+        <v>-0.0710855499726975</v>
       </c>
       <c r="AH59">
-        <v>0.04350424554927276</v>
+        <v>-0.1646950535569978</v>
       </c>
       <c r="AI59">
-        <v>-0.1538090242841756</v>
+        <v>-0.1243125084125967</v>
       </c>
       <c r="AJ59">
-        <v>0.04430758624740055</v>
+        <v>0.2428066093358751</v>
       </c>
       <c r="AK59">
-        <v>0.5436610000664334</v>
+        <v>0.3301589939605005</v>
       </c>
       <c r="AL59">
-        <v>0.03053896899125952</v>
+        <v>0.2669401745841223</v>
       </c>
       <c r="AM59">
         <v>0.2669401745841223</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>0.2669401745841223</v>
       </c>
-      <c r="BA59">
-        <v>0.2669401745841223</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>-0.05448187771516386</v>
-      </c>
-      <c r="W60">
-        <v>-0.05320829193692105</v>
-      </c>
-      <c r="X60">
-        <v>-0.06040257702371789</v>
-      </c>
-      <c r="Y60">
-        <v>-0.03924224457696339</v>
-      </c>
-      <c r="Z60">
-        <v>-0.05216190751420578</v>
-      </c>
-      <c r="AA60">
-        <v>-0.04926948539199638</v>
-      </c>
-      <c r="AB60">
-        <v>-0.05117494132759907</v>
-      </c>
-      <c r="AC60">
-        <v>-0.074170299186993</v>
-      </c>
       <c r="AD60">
-        <v>-0.06429855284784872</v>
+        <v>-0.08331140555529828</v>
       </c>
       <c r="AE60">
-        <v>-0.04106609640057344</v>
+        <v>-0.07218535775868277</v>
       </c>
       <c r="AF60">
-        <v>-0.0788245604502379</v>
+        <v>-0.046087493676189</v>
       </c>
       <c r="AG60">
-        <v>-0.009044466214596064</v>
+        <v>0.02601039932429307</v>
       </c>
       <c r="AH60">
-        <v>0.04939851540392129</v>
+        <v>-0.08035392852007862</v>
       </c>
       <c r="AI60">
-        <v>-0.00577317676607389</v>
+        <v>-0.1369886867741754</v>
       </c>
       <c r="AJ60">
-        <v>0.03127427488933457</v>
+        <v>0.2179086410532463</v>
       </c>
       <c r="AK60">
-        <v>0.3226642396287572</v>
+        <v>-0.0413059847877448</v>
       </c>
       <c r="AL60">
-        <v>-0.4943583309198688</v>
+        <v>-0.05131375716928036</v>
       </c>
       <c r="AM60">
-        <v>-0.3460299254023569</v>
+        <v>0.03791487406588956</v>
       </c>
       <c r="AN60">
         <v>0.03791487406588956</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>0.03791487406588956</v>
       </c>
-      <c r="BA60">
-        <v>0.03791487406588956</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>-0.0391253045103658</v>
-      </c>
-      <c r="Z61">
-        <v>-0.05206281018633588</v>
-      </c>
-      <c r="AA61">
-        <v>-0.04914247001136322</v>
-      </c>
-      <c r="AB61">
-        <v>-0.05100098734858442</v>
-      </c>
-      <c r="AC61">
-        <v>-0.04826595985730715</v>
-      </c>
-      <c r="AD61">
-        <v>-0.05182132298077057</v>
-      </c>
       <c r="AE61">
-        <v>-0.03362729295266341</v>
+        <v>-0.07218168218944562</v>
       </c>
       <c r="AF61">
-        <v>-0.04347268965952689</v>
+        <v>-0.05259851681913285</v>
       </c>
       <c r="AG61">
-        <v>-0.03782858420977384</v>
+        <v>-0.02087426011168795</v>
       </c>
       <c r="AH61">
-        <v>0.03075421111669666</v>
+        <v>-0.015330738978204</v>
       </c>
       <c r="AI61">
-        <v>0.07358986656317076</v>
+        <v>-0.03126464139389197</v>
       </c>
       <c r="AJ61">
-        <v>-0.007700856944595241</v>
+        <v>-0.08485864316117259</v>
       </c>
       <c r="AK61">
-        <v>0.1953926851715814</v>
+        <v>-0.1688896702676366</v>
       </c>
       <c r="AL61">
-        <v>-0.03145764710777538</v>
+        <v>-0.1531315637689571</v>
       </c>
       <c r="AM61">
-        <v>-0.01797332413968833</v>
+        <v>-0.1215354750240374</v>
       </c>
       <c r="AN61">
-        <v>0.04912388219507074</v>
+        <v>-0.04567208272808071</v>
       </c>
       <c r="AO61">
         <v>-0.04567208272808071</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>-0.04567208272808071</v>
       </c>
-      <c r="BA61">
-        <v>-0.04567208272808071</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>-0.03910410691672399</v>
-      </c>
-      <c r="Z62">
-        <v>-0.0520038735721727</v>
-      </c>
-      <c r="AA62">
-        <v>-0.0490373757223173</v>
-      </c>
-      <c r="AB62">
-        <v>-0.05095415078403465</v>
-      </c>
-      <c r="AC62">
-        <v>-0.03835034552288048</v>
-      </c>
-      <c r="AD62">
-        <v>-0.05032340435733069</v>
-      </c>
-      <c r="AE62">
-        <v>-0.03565828199075789</v>
-      </c>
       <c r="AF62">
-        <v>-0.02870466920533918</v>
+        <v>-0.05500642102701831</v>
       </c>
       <c r="AG62">
-        <v>-0.03720759165400969</v>
+        <v>-0.07365733683808642</v>
       </c>
       <c r="AH62">
-        <v>0.04518831705127493</v>
+        <v>-0.03496221702911479</v>
       </c>
       <c r="AI62">
-        <v>0.05019505626352677</v>
+        <v>0.008044034959994076</v>
       </c>
       <c r="AJ62">
-        <v>0.00134837388745826</v>
+        <v>-0.1827690261807152</v>
       </c>
       <c r="AK62">
-        <v>0.03570526805180541</v>
+        <v>-0.1131737699569165</v>
       </c>
       <c r="AL62">
-        <v>-0.04812774788087792</v>
+        <v>-0.1092282826141382</v>
       </c>
       <c r="AM62">
-        <v>-0.03916199591804981</v>
+        <v>-0.1080919629510519</v>
       </c>
       <c r="AN62">
-        <v>0.008727482846635659</v>
+        <v>-0.09039367830156333</v>
       </c>
       <c r="AO62">
-        <v>0.03398775604886813</v>
+        <v>-0.5154625125417773</v>
       </c>
       <c r="AP62">
         <v>-0.5154625125417773</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.5154625125417773</v>
       </c>
-      <c r="BA62">
-        <v>-0.5154625125417773</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>-0.03912261000742463</v>
-      </c>
-      <c r="Z63">
-        <v>-0.05201223952702411</v>
-      </c>
-      <c r="AA63">
-        <v>-0.04904451614424472</v>
-      </c>
-      <c r="AB63">
-        <v>-0.05097805367082911</v>
-      </c>
-      <c r="AC63">
-        <v>-0.04541678722397899</v>
-      </c>
-      <c r="AD63">
-        <v>-0.05438155640579052</v>
-      </c>
-      <c r="AE63">
-        <v>-0.03828387250886589</v>
-      </c>
       <c r="AF63">
-        <v>-0.04621088879062082</v>
+        <v>-0.05350205549702382</v>
       </c>
       <c r="AG63">
-        <v>-0.01109174250912849</v>
+        <v>-0.05934298808784481</v>
       </c>
       <c r="AH63">
-        <v>-0.02609408179327793</v>
+        <v>-0.06806360412280982</v>
       </c>
       <c r="AI63">
-        <v>-0.06611061069883088</v>
+        <v>-0.03597336602594074</v>
       </c>
       <c r="AJ63">
-        <v>-0.03668848105842964</v>
+        <v>-0.1312739309949388</v>
       </c>
       <c r="AK63">
-        <v>-0.006178249755636078</v>
+        <v>-0.0796445179908086</v>
       </c>
       <c r="AL63">
-        <v>-0.02337583031178853</v>
+        <v>-0.08425456512156362</v>
       </c>
       <c r="AM63">
-        <v>-0.04717778368150999</v>
+        <v>-0.0805327100292218</v>
       </c>
       <c r="AN63">
-        <v>0.0166965182527673</v>
+        <v>-0.08345907726748913</v>
       </c>
       <c r="AO63">
-        <v>0.03050620287519542</v>
+        <v>-0.1601575703556695</v>
       </c>
       <c r="AP63">
-        <v>0.04047683172432792</v>
+        <v>-0.1813602613933202</v>
       </c>
       <c r="AQ63">
         <v>-0.1813602613933202</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-0.1813602613933202</v>
       </c>
-      <c r="BA63">
-        <v>-0.1813602613933202</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>-0.03912651624214892</v>
-      </c>
-      <c r="Z64">
-        <v>-0.05202176393839619</v>
-      </c>
-      <c r="AA64">
-        <v>-0.0490610335270041</v>
-      </c>
-      <c r="AB64">
-        <v>-0.05098672896613854</v>
-      </c>
-      <c r="AC64">
-        <v>-0.04968029621267905</v>
-      </c>
-      <c r="AD64">
-        <v>-0.05559274118875984</v>
-      </c>
-      <c r="AE64">
-        <v>-0.03771918205259873</v>
-      </c>
-      <c r="AF64">
-        <v>-0.05828991092386271</v>
-      </c>
       <c r="AG64">
-        <v>-0.01000145183458174</v>
+        <v>-0.03230432860780928</v>
       </c>
       <c r="AH64">
-        <v>-0.04491352427448559</v>
+        <v>-0.06812120749528611</v>
       </c>
       <c r="AI64">
-        <v>-0.1012043625232593</v>
+        <v>-0.0704067738254633</v>
       </c>
       <c r="AJ64">
-        <v>-0.05323055363538222</v>
+        <v>-0.08579963907283572</v>
       </c>
       <c r="AK64">
-        <v>-0.0137278119927412</v>
+        <v>-0.08592007678660855</v>
       </c>
       <c r="AL64">
-        <v>-0.04131286714516019</v>
+        <v>-0.0887495504583064</v>
       </c>
       <c r="AM64">
-        <v>-0.0455317243747756</v>
+        <v>-0.07866038706262637</v>
       </c>
       <c r="AN64">
-        <v>-0.0204542095353839</v>
+        <v>-0.07563564703550636</v>
       </c>
       <c r="AO64">
-        <v>0.005945473655066147</v>
+        <v>-0.04273384271520402</v>
       </c>
       <c r="AP64">
-        <v>-0.04387442192048291</v>
+        <v>-0.04606069156393768</v>
       </c>
       <c r="AQ64">
-        <v>0.04369501132224954</v>
+        <v>-0.01480819732384536</v>
       </c>
       <c r="AR64">
         <v>-0.01480819732384536</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>-0.01480819732384536</v>
       </c>
-      <c r="BA64">
-        <v>-0.01480819732384536</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>-0.04797629772206252</v>
-      </c>
-      <c r="AD65">
-        <v>-0.05439653256295036</v>
-      </c>
-      <c r="AE65">
-        <v>-0.03679973792945698</v>
-      </c>
-      <c r="AF65">
-        <v>-0.05058022955795492</v>
-      </c>
-      <c r="AG65">
-        <v>-0.01742568919259564</v>
-      </c>
       <c r="AH65">
-        <v>-0.008957108947181084</v>
+        <v>-0.05385891554348922</v>
       </c>
       <c r="AI65">
-        <v>-0.07137389238424932</v>
+        <v>-0.05764795238364946</v>
       </c>
       <c r="AJ65">
-        <v>-0.04183564743327411</v>
+        <v>-0.08456877926072298</v>
       </c>
       <c r="AK65">
-        <v>-0.04741920219820256</v>
+        <v>-0.09352179775490271</v>
       </c>
       <c r="AL65">
-        <v>-0.04220352808913273</v>
+        <v>-0.09397863627989594</v>
       </c>
       <c r="AM65">
-        <v>-0.04694023383333376</v>
+        <v>-0.0828101160376376</v>
       </c>
       <c r="AN65">
-        <v>0.04282449173431949</v>
+        <v>-0.07566276391258112</v>
       </c>
       <c r="AO65">
-        <v>-0.02569795453379112</v>
+        <v>-0.07612903901506321</v>
       </c>
       <c r="AP65">
-        <v>0.01821396578631812</v>
+        <v>-0.07384660225340092</v>
       </c>
       <c r="AQ65">
-        <v>0.02973904496419957</v>
+        <v>-0.07083155673753914</v>
       </c>
       <c r="AR65">
-        <v>0.03297355079550005</v>
+        <v>0.02918400950819283</v>
       </c>
       <c r="AS65">
         <v>0.02918400950819283</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0.02918400950819283</v>
       </c>
-      <c r="BA65">
-        <v>0.02918400950819283</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>-0.04633456020709345</v>
-      </c>
-      <c r="AD66">
-        <v>-0.05377340677509085</v>
-      </c>
-      <c r="AE66">
-        <v>-0.03694767871856417</v>
-      </c>
-      <c r="AF66">
-        <v>-0.04203098081019188</v>
-      </c>
-      <c r="AG66">
-        <v>-0.01809834078004816</v>
-      </c>
-      <c r="AH66">
-        <v>0.006824225695510729</v>
-      </c>
       <c r="AI66">
-        <v>-0.04716872894266267</v>
+        <v>-0.03543517958047089</v>
       </c>
       <c r="AJ66">
-        <v>-0.03075441896986807</v>
+        <v>-0.09697333781846863</v>
       </c>
       <c r="AK66">
-        <v>-0.04814795696917662</v>
+        <v>-0.0933680726768262</v>
       </c>
       <c r="AL66">
-        <v>-0.04283148628474835</v>
+        <v>-0.09390025180032785</v>
       </c>
       <c r="AM66">
-        <v>-0.04419458477459295</v>
+        <v>-0.08371747931291683</v>
       </c>
       <c r="AN66">
-        <v>0.01154277230194778</v>
+        <v>-0.07687329951383498</v>
       </c>
       <c r="AO66">
-        <v>0.04301021326275234</v>
+        <v>-0.0975270242909627</v>
       </c>
       <c r="AP66">
-        <v>0.0270960776614676</v>
+        <v>-0.09706439003201843</v>
       </c>
       <c r="AQ66">
-        <v>0.01172849865054343</v>
+        <v>-0.1038828347540457</v>
       </c>
       <c r="AR66">
-        <v>-0.03668917383431915</v>
+        <v>-0.0877931701945584</v>
       </c>
       <c r="AS66">
-        <v>0.02976463196983974</v>
+        <v>-0.03321544329283629</v>
       </c>
       <c r="AT66">
         <v>-0.03321544329283629</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>-0.03321544329283629</v>
       </c>
-      <c r="BA66">
-        <v>-0.03321544329283629</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>-0.04665740788640171</v>
-      </c>
-      <c r="AD67">
-        <v>-0.05408054876321924</v>
-      </c>
-      <c r="AE67">
-        <v>-0.03726727170305243</v>
-      </c>
-      <c r="AF67">
-        <v>-0.04477615780873348</v>
-      </c>
-      <c r="AG67">
-        <v>-0.01600538328867598</v>
-      </c>
-      <c r="AH67">
-        <v>-0.01034673101454274</v>
-      </c>
-      <c r="AI67">
-        <v>-0.04910054562470262</v>
-      </c>
       <c r="AJ67">
-        <v>-0.03214947300907502</v>
+        <v>-0.1016199185428677</v>
       </c>
       <c r="AK67">
-        <v>-0.0588370365719436</v>
+        <v>-0.09182812580024639</v>
       </c>
       <c r="AL67">
-        <v>-0.09297135756010072</v>
+        <v>-0.09292865189701724</v>
       </c>
       <c r="AM67">
-        <v>-0.08777201412364712</v>
+        <v>-0.08318409595829475</v>
       </c>
       <c r="AN67">
-        <v>-0.07487698237750878</v>
+        <v>-0.07703045298498823</v>
       </c>
       <c r="AO67">
-        <v>-0.04414965315436631</v>
+        <v>-0.09587508881160677</v>
       </c>
       <c r="AP67">
-        <v>0.003949865091989385</v>
+        <v>-0.09648734904950704</v>
       </c>
       <c r="AQ67">
-        <v>0.04171417100533775</v>
+        <v>-0.100237538234438</v>
       </c>
       <c r="AR67">
-        <v>-0.02833738387902709</v>
+        <v>-0.1114103464122341</v>
       </c>
       <c r="AS67">
-        <v>0.0425663075747533</v>
+        <v>-0.100142864358427</v>
       </c>
       <c r="AT67">
-        <v>0.02006819488540634</v>
+        <v>1.303303454188581E-05</v>
       </c>
       <c r="AU67">
         <v>1.303303454188581E-05</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>1.303303454188581E-05</v>
       </c>
-      <c r="BA67">
-        <v>1.303303454188581E-05</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>-0.04724175944402167</v>
-      </c>
-      <c r="AD68">
-        <v>-0.05434846738669503</v>
-      </c>
-      <c r="AE68">
-        <v>-0.03723227962430915</v>
-      </c>
-      <c r="AF68">
-        <v>-0.05028127534323603</v>
-      </c>
-      <c r="AG68">
-        <v>-0.0157111717097969</v>
-      </c>
-      <c r="AH68">
-        <v>-0.021585820198847</v>
-      </c>
-      <c r="AI68">
-        <v>-0.05878275651417891</v>
-      </c>
-      <c r="AJ68">
-        <v>-0.03751691397558751</v>
-      </c>
       <c r="AK68">
-        <v>-0.06056421322859021</v>
+        <v>-0.09163613940176178</v>
       </c>
       <c r="AL68">
-        <v>-0.0988666912140726</v>
+        <v>-0.09280421600605898</v>
       </c>
       <c r="AM68">
-        <v>-0.09342239948940965</v>
+        <v>-0.08296045578869077</v>
       </c>
       <c r="AN68">
-        <v>-0.08373643201800475</v>
+        <v>-0.07686464848412321</v>
       </c>
       <c r="AO68">
-        <v>0.004328815227750915</v>
+        <v>-0.09261200288575026</v>
       </c>
       <c r="AP68">
-        <v>-0.009960147238441935</v>
+        <v>-0.09311040191002302</v>
       </c>
       <c r="AQ68">
-        <v>0.04238396914448175</v>
+        <v>-0.0947545887042861</v>
       </c>
       <c r="AR68">
-        <v>-0.01111217999950459</v>
+        <v>-0.09711935338362131</v>
       </c>
       <c r="AS68">
-        <v>0.036103602556341</v>
+        <v>-0.1005491195291874</v>
       </c>
       <c r="AT68">
-        <v>0.01846727715219418</v>
+        <v>-0.08785292621221104</v>
       </c>
       <c r="AU68">
-        <v>0.03482569917000021</v>
+        <v>-0.006125572440376981</v>
       </c>
       <c r="AV68">
         <v>-0.006125572440376981</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>-0.006125572440376981</v>
       </c>
-      <c r="BA68">
-        <v>-0.006125572440376981</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>-0.01629611648698363</v>
-      </c>
-      <c r="AH69">
-        <v>-0.01395479201064583</v>
-      </c>
-      <c r="AI69">
-        <v>-0.06171006885308283</v>
-      </c>
-      <c r="AJ69">
-        <v>-0.03866779646071365</v>
-      </c>
-      <c r="AK69">
-        <v>-0.0589567246086086</v>
-      </c>
       <c r="AL69">
-        <v>-0.0956770581156125</v>
+        <v>-0.09296488409895123</v>
       </c>
       <c r="AM69">
-        <v>-0.08818442212320736</v>
+        <v>-0.08301336491369661</v>
       </c>
       <c r="AN69">
-        <v>-0.0737205436345644</v>
+        <v>-0.07681830643930934</v>
       </c>
       <c r="AO69">
-        <v>0.02917851195808144</v>
+        <v>-0.09237734819308355</v>
       </c>
       <c r="AP69">
-        <v>0.0079230561952775</v>
+        <v>-0.09270293250440056</v>
       </c>
       <c r="AQ69">
-        <v>0.04106101087725861</v>
+        <v>-0.09451196670676308</v>
       </c>
       <c r="AR69">
-        <v>-0.01757680374667519</v>
+        <v>-0.09147152141678101</v>
       </c>
       <c r="AS69">
-        <v>0.04479264312811146</v>
+        <v>-0.09057916270574957</v>
       </c>
       <c r="AT69">
-        <v>-0.005362164498995153</v>
+        <v>-0.1059266798348665</v>
       </c>
       <c r="AU69">
-        <v>0.0284849489897904</v>
+        <v>-0.09294168572068119</v>
       </c>
       <c r="AV69">
-        <v>0.02153288689035963</v>
+        <v>0.04879937325030748</v>
       </c>
       <c r="AW69">
         <v>0.04879937325030748</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>0.04879937325030748</v>
       </c>
-      <c r="BA69">
-        <v>0.04879937325030748</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>-0.01640875431204315</v>
-      </c>
-      <c r="AH70">
-        <v>-0.006657050792155629</v>
-      </c>
-      <c r="AI70">
-        <v>-0.05922893522563816</v>
-      </c>
-      <c r="AJ70">
-        <v>-0.03666987868236785</v>
-      </c>
-      <c r="AK70">
-        <v>-0.0583691888837856</v>
-      </c>
-      <c r="AL70">
-        <v>-0.09484172677080104</v>
-      </c>
       <c r="AM70">
-        <v>-0.0867822042609262</v>
+        <v>-0.08305699852753126</v>
       </c>
       <c r="AN70">
-        <v>-0.07105473517259134</v>
+        <v>-0.07683770878199717</v>
       </c>
       <c r="AO70">
-        <v>0.02063693075792813</v>
+        <v>-0.0928051283062946</v>
       </c>
       <c r="AP70">
-        <v>0.02604151481664679</v>
+        <v>-0.09312289419741403</v>
       </c>
       <c r="AQ70">
-        <v>-0.006326920519854534</v>
+        <v>-0.09529954030894262</v>
       </c>
       <c r="AR70">
-        <v>-0.03285080196133532</v>
+        <v>-0.09281702063782427</v>
       </c>
       <c r="AS70">
-        <v>-0.04315841472993445</v>
+        <v>-0.08906482947440585</v>
       </c>
       <c r="AT70">
-        <v>-0.03119922929105892</v>
+        <v>-0.09551486584768759</v>
       </c>
       <c r="AU70">
-        <v>0.0240514243322803</v>
+        <v>-0.1049599397649112</v>
       </c>
       <c r="AV70">
-        <v>-0.04928889592524052</v>
+        <v>-0.08075077953195618</v>
       </c>
       <c r="AW70">
-        <v>0.0441124160817571</v>
+        <v>0.0477695913607396</v>
       </c>
       <c r="AX70">
         <v>0.0477695913607396</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.0477695913607396</v>
       </c>
-      <c r="BA70">
-        <v>0.0477695913607396</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>-0.01624674917893904</v>
-      </c>
-      <c r="AH71">
-        <v>-0.009694533799681097</v>
-      </c>
-      <c r="AI71">
-        <v>-0.05721257267403623</v>
-      </c>
-      <c r="AJ71">
-        <v>-0.03550179409434879</v>
-      </c>
-      <c r="AK71">
-        <v>-0.05855397872975071</v>
-      </c>
-      <c r="AL71">
-        <v>-0.0949900660413541</v>
-      </c>
-      <c r="AM71">
-        <v>-0.08732424443933616</v>
-      </c>
       <c r="AN71">
-        <v>-0.07196964639000145</v>
+        <v>-0.07684744386482635</v>
       </c>
       <c r="AO71">
-        <v>-0.07498249534940125</v>
+        <v>-0.09289970044540558</v>
       </c>
       <c r="AP71">
-        <v>-0.08438952571017158</v>
+        <v>-0.09324154430151972</v>
       </c>
       <c r="AQ71">
-        <v>-0.09449355256249325</v>
+        <v>-0.0954493348647702</v>
       </c>
       <c r="AR71">
-        <v>-0.09670671079776051</v>
+        <v>-0.0938673122475386</v>
       </c>
       <c r="AS71">
-        <v>-0.02223378620736899</v>
+        <v>-0.0903380788002547</v>
       </c>
       <c r="AT71">
-        <v>0.00215765191468896</v>
+        <v>-0.09126403134977833</v>
       </c>
       <c r="AU71">
-        <v>0.02753124260504997</v>
+        <v>-0.09390824342569054</v>
       </c>
       <c r="AV71">
-        <v>-0.04705968501981209</v>
+        <v>-0.1082583103073832</v>
       </c>
       <c r="AW71">
-        <v>-0.04869699388653936</v>
+        <v>-0.09035143589908358</v>
       </c>
       <c r="AX71">
-        <v>0.04678923642290504</v>
+        <v>0.4714513528429705</v>
       </c>
       <c r="AY71">
         <v>0.4714513528429705</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>0.4714513528429705</v>
       </c>
-      <c r="BA71">
-        <v>0.4714513528429705</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>-0.01620663371327628</v>
-      </c>
-      <c r="AH72">
-        <v>-0.01413845406476583</v>
-      </c>
-      <c r="AI72">
-        <v>-0.05737208033515943</v>
-      </c>
-      <c r="AJ72">
-        <v>-0.03600172626790147</v>
-      </c>
-      <c r="AK72">
-        <v>-0.05869093836609492</v>
-      </c>
-      <c r="AL72">
-        <v>-0.0950724343363457</v>
-      </c>
-      <c r="AM72">
-        <v>-0.08758044939095684</v>
-      </c>
-      <c r="AN72">
-        <v>-0.07245688172422958</v>
-      </c>
       <c r="AO72">
-        <v>-0.08858002952824301</v>
+        <v>-0.09285277677710456</v>
       </c>
       <c r="AP72">
-        <v>-0.1023068559633644</v>
+        <v>-0.09319916712425662</v>
       </c>
       <c r="AQ72">
-        <v>-0.1011956522295311</v>
+        <v>-0.09535275758344561</v>
       </c>
       <c r="AR72">
-        <v>-0.1039980122056692</v>
+        <v>-0.09381579435756887</v>
       </c>
       <c r="AS72">
-        <v>0.02549294686865362</v>
+        <v>-0.09075062282828977</v>
       </c>
       <c r="AT72">
-        <v>-0.04242961760717481</v>
+        <v>-0.0921829553716062</v>
       </c>
       <c r="AU72">
-        <v>-0.01921837997516321</v>
+        <v>-0.09048509383949077</v>
       </c>
       <c r="AV72">
-        <v>0.00124993184129335</v>
+        <v>-0.0933968637923291</v>
       </c>
       <c r="AW72">
-        <v>-0.03993168528261201</v>
+        <v>-0.1113096457323662</v>
       </c>
       <c r="AX72">
-        <v>-0.03371275890830805</v>
+        <v>-0.009793685840773426</v>
       </c>
       <c r="AY72">
-        <v>0.04702464512965086</v>
+        <v>-0.02605454389395597</v>
       </c>
       <c r="AZ72">
         <v>-0.02605454389395597</v>
       </c>
-      <c r="BA72">
-        <v>-0.02605454389395597</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>-0.05868175732776355</v>
-      </c>
-      <c r="AL73">
-        <v>-0.0950706947991507</v>
-      </c>
-      <c r="AM73">
-        <v>-0.08753781181255987</v>
-      </c>
-      <c r="AN73">
-        <v>-0.07240987574482614</v>
-      </c>
-      <c r="AO73">
-        <v>-0.07783662206323189</v>
-      </c>
       <c r="AP73">
-        <v>-0.08948317431921037</v>
+        <v>-0.09317619670890778</v>
       </c>
       <c r="AQ73">
-        <v>-0.0892022269073877</v>
+        <v>-0.0953163809946162</v>
       </c>
       <c r="AR73">
-        <v>-0.0955169064314171</v>
+        <v>-0.09364927835803362</v>
       </c>
       <c r="AS73">
-        <v>0.03460179551301655</v>
+        <v>-0.09061996647453946</v>
       </c>
       <c r="AT73">
-        <v>-0.0436853919325232</v>
+        <v>-0.09295435698143362</v>
       </c>
       <c r="AU73">
-        <v>-0.01149461769822951</v>
+        <v>-0.09161008933960806</v>
       </c>
       <c r="AV73">
-        <v>-0.04093277325539776</v>
+        <v>-0.08713234158000324</v>
       </c>
       <c r="AW73">
-        <v>0.01759165642885197</v>
+        <v>-0.09408132384472798</v>
       </c>
       <c r="AX73">
-        <v>-0.03616606200134026</v>
+        <v>-0.1456973545621088</v>
       </c>
       <c r="AY73">
-        <v>0.0466915086155678</v>
+        <v>-0.162140921960116</v>
       </c>
       <c r="AZ73">
-        <v>0.04252920101670427</v>
-      </c>
-      <c r="BA73">
         <v>0.04549112474043772</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>-0.05865572013617403</v>
-      </c>
-      <c r="AL74">
-        <v>-0.0950641006343985</v>
-      </c>
-      <c r="AM74">
-        <v>-0.08749782972270742</v>
-      </c>
-      <c r="AN74">
-        <v>-0.07233885922242328</v>
-      </c>
-      <c r="AO74">
-        <v>-0.07435405697165093</v>
-      </c>
-      <c r="AP74">
-        <v>-0.08520836454782846</v>
-      </c>
       <c r="AQ74">
-        <v>-0.08634654079373533</v>
+        <v>-0.09532563106684139</v>
       </c>
       <c r="AR74">
-        <v>-0.09315098131726614</v>
+        <v>-0.09363294412805544</v>
       </c>
       <c r="AS74">
-        <v>0.02247265429918276</v>
+        <v>-0.09053909854469723</v>
       </c>
       <c r="AT74">
-        <v>-0.03815815754458507</v>
+        <v>-0.09293240151268503</v>
       </c>
       <c r="AU74">
-        <v>-0.02542857118091162</v>
+        <v>-0.09228391603277347</v>
       </c>
       <c r="AV74">
-        <v>-0.03171075766536474</v>
+        <v>-0.08837028941362522</v>
       </c>
       <c r="AW74">
-        <v>-0.01060763608869326</v>
+        <v>-0.08834788249519614</v>
       </c>
       <c r="AX74">
-        <v>-0.03656516466969391</v>
+        <v>-0.1004971441895479</v>
       </c>
       <c r="AY74">
-        <v>0.04542416388068141</v>
+        <v>-0.1096696448112585</v>
       </c>
       <c r="AZ74">
-        <v>0.03282358876177956</v>
-      </c>
-      <c r="BA74">
-        <v>0.0309492867244341</v>
+        <v>-0.06512810426627191</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>-0.05865283462477576</v>
-      </c>
-      <c r="AL75">
-        <v>-0.09506345380953575</v>
-      </c>
-      <c r="AM75">
-        <v>-0.08749878238718659</v>
-      </c>
-      <c r="AN75">
-        <v>-0.07233437508553925</v>
-      </c>
-      <c r="AO75">
-        <v>-0.07525971152197512</v>
-      </c>
-      <c r="AP75">
-        <v>-0.08639144850282904</v>
-      </c>
-      <c r="AQ75">
-        <v>-0.0876757645965681</v>
-      </c>
       <c r="AR75">
-        <v>-0.09406771118699611</v>
+        <v>-0.09365579255862491</v>
       </c>
       <c r="AS75">
-        <v>-0.0847057346763129</v>
+        <v>-0.09054688840014612</v>
       </c>
       <c r="AT75">
-        <v>-0.09020251309448582</v>
+        <v>-0.09281402984092907</v>
       </c>
       <c r="AU75">
-        <v>-0.08901469229540417</v>
+        <v>-0.09221784345369453</v>
       </c>
       <c r="AV75">
-        <v>-0.09036852450308142</v>
+        <v>-0.08947459708082658</v>
       </c>
       <c r="AW75">
-        <v>-0.001981843156319024</v>
+        <v>-0.09002008277035801</v>
       </c>
       <c r="AX75">
-        <v>-0.04811498957787418</v>
+        <v>-0.07436445934020228</v>
       </c>
       <c r="AY75">
-        <v>0.0350384627022345</v>
+        <v>-0.08129849460589403</v>
       </c>
       <c r="AZ75">
-        <v>0.04577456269623803</v>
-      </c>
-      <c r="BA75">
-        <v>0.03786046206685587</v>
+        <v>-0.09327511279675633</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>-0.0586569798950678</v>
-      </c>
-      <c r="AL76">
-        <v>-0.09506388852919709</v>
-      </c>
-      <c r="AM76">
-        <v>-0.08750433138467723</v>
-      </c>
-      <c r="AN76">
-        <v>-0.07234302530340812</v>
-      </c>
-      <c r="AO76">
-        <v>-0.07586701602255035</v>
-      </c>
-      <c r="AP76">
-        <v>-0.08714962015260948</v>
-      </c>
-      <c r="AQ76">
-        <v>-0.08830465153004957</v>
-      </c>
-      <c r="AR76">
-        <v>-0.09456003692466937</v>
-      </c>
       <c r="AS76">
-        <v>-0.1007573442606854</v>
+        <v>-0.09056014222244506</v>
       </c>
       <c r="AT76">
-        <v>-0.09938864200419516</v>
+        <v>-0.09279963593867492</v>
       </c>
       <c r="AU76">
-        <v>-0.09733310174354246</v>
+        <v>-0.09210833892731814</v>
       </c>
       <c r="AV76">
-        <v>-0.101136470620016</v>
+        <v>-0.08945895127728282</v>
       </c>
       <c r="AW76">
-        <v>-0.04365244545049354</v>
+        <v>-0.09112378433413851</v>
       </c>
       <c r="AX76">
-        <v>0.01783349575793794</v>
+        <v>-0.07647164916209873</v>
       </c>
       <c r="AY76">
-        <v>-0.003108440183028929</v>
+        <v>-0.08464169264302829</v>
       </c>
       <c r="AZ76">
-        <v>-0.002879636236362976</v>
-      </c>
-      <c r="BA76">
-        <v>0.02378314662873918</v>
+        <v>-0.08324195913757995</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>-0.07583904765008337</v>
-      </c>
-      <c r="AP77">
-        <v>-0.08709121381405109</v>
-      </c>
-      <c r="AQ77">
-        <v>-0.0882059063716597</v>
-      </c>
-      <c r="AR77">
-        <v>-0.09449644748153223</v>
-      </c>
-      <c r="AS77">
-        <v>-0.08752857630507332</v>
-      </c>
       <c r="AT77">
-        <v>-0.09289694065175649</v>
+        <v>-0.0928151485545383</v>
       </c>
       <c r="AU77">
-        <v>-0.0891511364106243</v>
+        <v>-0.09210180748538493</v>
       </c>
       <c r="AV77">
-        <v>-0.0938277469308427</v>
+        <v>-0.08929470693944401</v>
       </c>
       <c r="AW77">
-        <v>0.02426403647301548</v>
+        <v>-0.09104511434823831</v>
       </c>
       <c r="AX77">
-        <v>0.01291032452559809</v>
+        <v>-0.08044353350348968</v>
       </c>
       <c r="AY77">
-        <v>-0.03183628168303076</v>
+        <v>-0.08936933226312831</v>
       </c>
       <c r="AZ77">
-        <v>0.02365344711132084</v>
-      </c>
-      <c r="BA77">
-        <v>0.0268498851241776</v>
+        <v>-0.07779818894367674</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>-0.07575318370576953</v>
-      </c>
-      <c r="AP78">
-        <v>-0.08697786702947008</v>
-      </c>
-      <c r="AQ78">
-        <v>-0.08809757184342831</v>
-      </c>
-      <c r="AR78">
-        <v>-0.09441308175736532</v>
-      </c>
-      <c r="AS78">
-        <v>-0.08294363366000311</v>
-      </c>
-      <c r="AT78">
-        <v>-0.09045095461640784</v>
-      </c>
       <c r="AU78">
-        <v>-0.08656312440623497</v>
+        <v>-0.0921170320058092</v>
       </c>
       <c r="AV78">
-        <v>-0.09100612621703164</v>
+        <v>-0.08927233503772497</v>
       </c>
       <c r="AW78">
-        <v>0.02100322994600559</v>
+        <v>-0.09086982498133644</v>
       </c>
       <c r="AX78">
-        <v>0.03243030942016766</v>
+        <v>-0.08078572446540662</v>
       </c>
       <c r="AY78">
-        <v>-0.04528405643695903</v>
+        <v>-0.08961267508498026</v>
       </c>
       <c r="AZ78">
-        <v>0.04176216900311222</v>
-      </c>
-      <c r="BA78">
-        <v>0.04948913044124134</v>
+        <v>-0.07822218863516317</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>-0.07574369917375859</v>
-      </c>
-      <c r="AP79">
-        <v>-0.08697016119518393</v>
-      </c>
-      <c r="AQ79">
-        <v>-0.08809532717073672</v>
-      </c>
-      <c r="AR79">
-        <v>-0.09441010787633217</v>
-      </c>
-      <c r="AS79">
-        <v>-0.08414276049338602</v>
-      </c>
-      <c r="AT79">
-        <v>-0.09105233331233402</v>
-      </c>
-      <c r="AU79">
-        <v>-0.08736748653185258</v>
-      </c>
       <c r="AV79">
-        <v>-0.09168091111530256</v>
+        <v>-0.08929305400265204</v>
       </c>
       <c r="AW79">
-        <v>-0.08911187653441424</v>
+        <v>-0.09085467087928656</v>
       </c>
       <c r="AX79">
-        <v>-0.0843289281479852</v>
+        <v>-0.08028799870599691</v>
       </c>
       <c r="AY79">
-        <v>-0.07678093945050812</v>
+        <v>-0.0889499806759725</v>
       </c>
       <c r="AZ79">
-        <v>-0.06771780561154127</v>
-      </c>
-      <c r="BA79">
-        <v>0.0490967215413709</v>
+        <v>-0.0790200938628608</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>-0.07575376680268464</v>
-      </c>
-      <c r="AP80">
-        <v>-0.08698481378560699</v>
-      </c>
-      <c r="AQ80">
-        <v>-0.0881109954868219</v>
-      </c>
-      <c r="AR80">
-        <v>-0.09442216230473416</v>
-      </c>
-      <c r="AS80">
-        <v>-0.08502275938154563</v>
-      </c>
-      <c r="AT80">
-        <v>-0.09152299158523269</v>
-      </c>
-      <c r="AU80">
-        <v>-0.08788761059448635</v>
-      </c>
-      <c r="AV80">
-        <v>-0.09222258886597631</v>
-      </c>
       <c r="AW80">
-        <v>-0.1066885706410443</v>
+        <v>-0.0908782844436702</v>
       </c>
       <c r="AX80">
-        <v>-0.106541793494672</v>
+        <v>-0.08016079374677208</v>
       </c>
       <c r="AY80">
-        <v>-0.08065940196294513</v>
+        <v>-0.08881034221787426</v>
       </c>
       <c r="AZ80">
-        <v>-0.08885649091304898</v>
-      </c>
-      <c r="BA80">
-        <v>0.03478247109198193</v>
+        <v>-0.07909764272370784</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>-0.08499141196053395</v>
-      </c>
-      <c r="AT81">
-        <v>-0.09150639387888389</v>
-      </c>
-      <c r="AU81">
-        <v>-0.08785203241446983</v>
-      </c>
-      <c r="AV81">
-        <v>-0.09220510233014392</v>
-      </c>
-      <c r="AW81">
-        <v>-0.0931475303067974</v>
-      </c>
       <c r="AX81">
-        <v>-0.09297536368493185</v>
+        <v>-0.08020967761262761</v>
       </c>
       <c r="AY81">
-        <v>-0.07734721937027177</v>
+        <v>-0.08888674241654887</v>
       </c>
       <c r="AZ81">
-        <v>-0.07866665144767604</v>
-      </c>
-      <c r="BA81">
-        <v>0.007556703559159023</v>
+        <v>-0.07900417754247258</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>-0.08485562371816545</v>
-      </c>
-      <c r="AT82">
-        <v>-0.09143171394108258</v>
-      </c>
-      <c r="AU82">
-        <v>-0.08776814124654264</v>
-      </c>
-      <c r="AV82">
-        <v>-0.09211897392828319</v>
-      </c>
-      <c r="AW82">
-        <v>-0.08830462258900935</v>
-      </c>
-      <c r="AX82">
-        <v>-0.08744882075129311</v>
-      </c>
       <c r="AY82">
-        <v>-0.07626720713945565</v>
+        <v>-0.08891937982886546</v>
       </c>
       <c r="AZ82">
-        <v>-0.07424181082474804</v>
-      </c>
-      <c r="BA82">
-        <v>-0.03157716901403851</v>
+        <v>-0.07897811317061841</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>-0.08483765841110139</v>
-      </c>
-      <c r="AT83">
-        <v>-0.09142228590995219</v>
-      </c>
-      <c r="AU83">
-        <v>-0.0877597472958237</v>
-      </c>
-      <c r="AV83">
-        <v>-0.09210793694092739</v>
-      </c>
-      <c r="AW83">
-        <v>-0.08952992385243819</v>
-      </c>
-      <c r="AX83">
-        <v>-0.08853746780130942</v>
-      </c>
-      <c r="AY83">
-        <v>-0.07649629881989613</v>
-      </c>
       <c r="AZ83">
-        <v>-0.07476710090039737</v>
-      </c>
-      <c r="BA83">
-        <v>-0.07583143298497903</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>-0.08485481333986226</v>
-      </c>
-      <c r="AT84">
-        <v>-0.09143220253966235</v>
-      </c>
-      <c r="AU84">
-        <v>-0.08777096452491256</v>
-      </c>
-      <c r="AV84">
-        <v>-0.09211942935507735</v>
-      </c>
-      <c r="AW84">
-        <v>-0.09045326668240909</v>
-      </c>
-      <c r="AX84">
-        <v>-0.08953389890228208</v>
-      </c>
-      <c r="AY84">
-        <v>-0.07667409111447324</v>
-      </c>
-      <c r="AZ84">
-        <v>-0.07541650209997</v>
-      </c>
-      <c r="BA84">
-        <v>-0.07870900696538129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>-0.09042196943297923</v>
-      </c>
-      <c r="AX85">
-        <v>-0.08953808303780238</v>
-      </c>
-      <c r="AY85">
-        <v>-0.07667653011882326</v>
-      </c>
-      <c r="AZ85">
-        <v>-0.0754619659324034</v>
-      </c>
-      <c r="BA85">
-        <v>-0.07373677239491599</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>-0.09027911373024063</v>
-      </c>
-      <c r="AX86">
-        <v>-0.08939161542186623</v>
-      </c>
-      <c r="AY86">
-        <v>-0.07665438327311766</v>
-      </c>
-      <c r="AZ86">
-        <v>-0.07538776094827354</v>
-      </c>
-      <c r="BA86">
-        <v>-0.07251362759750218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>-0.09026034812703602</v>
-      </c>
-      <c r="AX87">
-        <v>-0.08936674911445526</v>
-      </c>
-      <c r="AY87">
-        <v>-0.07665014553778778</v>
-      </c>
-      <c r="AZ87">
-        <v>-0.07536924066359409</v>
-      </c>
-      <c r="BA87">
-        <v>-0.07291535021960135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>-0.09027857758476214</v>
-      </c>
-      <c r="AX88">
-        <v>-0.08938426380831058</v>
-      </c>
-      <c r="AY88">
-        <v>-0.07665220655477523</v>
-      </c>
-      <c r="AZ88">
-        <v>-0.07537542537180777</v>
-      </c>
-      <c r="BA88">
-        <v>-0.07313671291986854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>-0.07312562861636474</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>-0.07309631358479338</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>-0.07309257189556452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>-0.07309554548742751</v>
+        <v>-0.07898620677106699</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.02158511650541478</v>
       </c>
       <c r="AG64">
-        <v>-0.4440571223929872</v>
+        <v>-0.1568461289965021</v>
       </c>
       <c r="AH64">
         <v>-2</v>
@@ -9166,10 +9166,10 @@
         <v>-0.05816819431753725</v>
       </c>
       <c r="AG65">
-        <v>0.135279794427711</v>
+        <v>0.03137212723048809</v>
       </c>
       <c r="AH65">
-        <v>-0.7255945204468831</v>
+        <v>0.66428567620281</v>
       </c>
       <c r="AI65">
         <v>1.4</v>
@@ -9255,13 +9255,13 @@
         <v>-0.02322851008459323</v>
       </c>
       <c r="AG66">
-        <v>-0.1185512449299394</v>
+        <v>-0.06051642072475285</v>
       </c>
       <c r="AH66">
-        <v>-0.1794899914579581</v>
+        <v>-0.3934526693206254</v>
       </c>
       <c r="AI66">
-        <v>-0.5292660609007143</v>
+        <v>-0.7400038549115902</v>
       </c>
       <c r="AJ66">
         <v>1.4</v>
@@ -9341,16 +9341,16 @@
         <v>-0.03855800597557799</v>
       </c>
       <c r="AG67">
-        <v>0.001695080592660513</v>
+        <v>-0.0171547397092367</v>
       </c>
       <c r="AH67">
-        <v>-0.1468068917847613</v>
+        <v>0.07151979552997337</v>
       </c>
       <c r="AI67">
-        <v>0.119186251005643</v>
+        <v>0.254301520551817</v>
       </c>
       <c r="AJ67">
-        <v>-0.1550786956675604</v>
+        <v>-0.7036402473362195</v>
       </c>
       <c r="AK67">
         <v>0.1</v>
@@ -9424,19 +9424,19 @@
         <v>-0.0318333692098498</v>
       </c>
       <c r="AG68">
-        <v>-0.05453365761467818</v>
+        <v>-0.03774898317530392</v>
       </c>
       <c r="AH68">
-        <v>-0.09518114387261807</v>
+        <v>-0.1302022799939972</v>
       </c>
       <c r="AI68">
-        <v>-0.1191304543836832</v>
+        <v>-0.1975851071045272</v>
       </c>
       <c r="AJ68">
-        <v>-0.2180207541917982</v>
+        <v>-0.07935887843630096</v>
       </c>
       <c r="AK68">
-        <v>-2.168330733759602</v>
+        <v>-0.4133846901392021</v>
       </c>
       <c r="AL68">
         <v>-0.1</v>
@@ -9504,22 +9504,22 @@
         <v>-0.03478333521605374</v>
       </c>
       <c r="AG69">
-        <v>-0.02818504810489454</v>
+        <v>-0.02797998121569466</v>
       </c>
       <c r="AH69">
-        <v>-0.1013726453105319</v>
+        <v>-0.042544311111071</v>
       </c>
       <c r="AI69">
-        <v>-0.02913845255527366</v>
+        <v>0.00739442116283238</v>
       </c>
       <c r="AJ69">
-        <v>0.07343954507612935</v>
+        <v>0.09617636395140601</v>
       </c>
       <c r="AK69">
-        <v>0.4362235237673495</v>
+        <v>0.08492509573855342</v>
       </c>
       <c r="AL69">
-        <v>-0.03982694963614287</v>
+        <v>0.1052762083474611</v>
       </c>
       <c r="AM69">
         <v>0.1</v>
@@ -9581,25 +9581,25 @@
         <v>-0.03348924538620025</v>
       </c>
       <c r="AG70">
-        <v>-0.04052770511779303</v>
+        <v>-0.03261505749536273</v>
       </c>
       <c r="AH70">
-        <v>-0.09475796569820638</v>
+        <v>-0.08062812216906436</v>
       </c>
       <c r="AI70">
-        <v>-0.06338095103084621</v>
+        <v>-0.08557047347211598</v>
       </c>
       <c r="AJ70">
-        <v>-0.011150036573398</v>
+        <v>-0.09331204871129906</v>
       </c>
       <c r="AK70">
-        <v>0.6287802825695583</v>
+        <v>0.05375205152755019</v>
       </c>
       <c r="AL70">
-        <v>0.01604729701201978</v>
+        <v>-0.03193437248079872</v>
       </c>
       <c r="AM70">
-        <v>0.2669401745841223</v>
+        <v>-0.0401967383532657</v>
       </c>
       <c r="AN70">
         <v>1.2</v>
@@ -9655,28 +9655,28 @@
         <v>-0.03405693626775731</v>
       </c>
       <c r="AG71">
-        <v>-0.03474563000786354</v>
+        <v>-0.03041596241975715</v>
       </c>
       <c r="AH71">
-        <v>-0.09664852138351356</v>
+        <v>-0.06408183658055418</v>
       </c>
       <c r="AI71">
-        <v>-0.05032410546527918</v>
+        <v>-0.04340848139831614</v>
       </c>
       <c r="AJ71">
-        <v>-0.03417792570009025</v>
+        <v>-0.05563732627793458</v>
       </c>
       <c r="AK71">
-        <v>-0.3793836260330195</v>
+        <v>-0.03761876259098382</v>
       </c>
       <c r="AL71">
-        <v>-0.01143889526123</v>
+        <v>-0.03969426357148299</v>
       </c>
       <c r="AM71">
-        <v>-0.128515016723297</v>
+        <v>-0.03027395586311088</v>
       </c>
       <c r="AN71">
-        <v>0.03791487406588956</v>
+        <v>-0.3940706333348232</v>
       </c>
       <c r="AO71">
         <v>0.1</v>
@@ -9726,31 +9726,31 @@
         <v>-0.03380790183202858</v>
       </c>
       <c r="AG72">
-        <v>-0.03745429241382051</v>
+        <v>-0.03145932406580663</v>
       </c>
       <c r="AH72">
-        <v>-0.09559596824878883</v>
+        <v>-0.07127068359181632</v>
       </c>
       <c r="AI72">
-        <v>-0.05530560703153925</v>
+        <v>-0.06253001437325653</v>
       </c>
       <c r="AJ72">
-        <v>-0.01189679972654798</v>
+        <v>-0.0327585202444088</v>
       </c>
       <c r="AK72">
-        <v>-0.2011211878073505</v>
+        <v>-0.006819133915015053</v>
       </c>
       <c r="AL72">
-        <v>-0.01885833592451585</v>
+        <v>-0.008812028899840445</v>
       </c>
       <c r="AM72">
-        <v>-0.09436793407284984</v>
+        <v>0.001809769164464752</v>
       </c>
       <c r="AN72">
-        <v>-0.4054528330916636</v>
+        <v>-0.317114986183733</v>
       </c>
       <c r="AO72">
-        <v>-0.04567208272808071</v>
+        <v>-0.1088099768989334</v>
       </c>
       <c r="AP72">
         <v>-0.1</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.03618539454563379</v>
+        <v>-0.03096430147984511</v>
       </c>
       <c r="AH73">
-        <v>-0.09599251107894607</v>
+        <v>-0.06814735166807218</v>
       </c>
       <c r="AI73">
-        <v>-0.05340474631757604</v>
+        <v>-0.05385791506550396</v>
       </c>
       <c r="AJ73">
-        <v>-0.01519092859554667</v>
+        <v>-0.04887238048470234</v>
       </c>
       <c r="AK73">
-        <v>0.1266101101429726</v>
+        <v>0.003192516861289445</v>
       </c>
       <c r="AL73">
-        <v>-0.01043215302651604</v>
+        <v>-0.01515611700544767</v>
       </c>
       <c r="AM73">
-        <v>0.02791263021133431</v>
+        <v>-0.008541254473763384</v>
       </c>
       <c r="AN73">
-        <v>0.07230565273303692</v>
+        <v>0.1964420290032929</v>
       </c>
       <c r="AO73">
-        <v>-0.06612949400458104</v>
+        <v>-0.04665158770047793</v>
       </c>
       <c r="AP73">
-        <v>-0.5154625125417773</v>
+        <v>-0.2525271085626162</v>
       </c>
       <c r="AQ73">
         <v>0.3</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.03677982130513462</v>
-      </c>
       <c r="AH74">
-        <v>-0.09580714055556369</v>
+        <v>-0.0695043428244675</v>
       </c>
       <c r="AI74">
-        <v>-0.05413011512809401</v>
+        <v>-0.05779093161614784</v>
       </c>
       <c r="AJ74">
-        <v>-0.01799137528084691</v>
+        <v>-0.04723067429999132</v>
       </c>
       <c r="AK74">
-        <v>-0.02016687280277152</v>
+        <v>-0.005663866116877891</v>
       </c>
       <c r="AL74">
-        <v>-0.01053636856855385</v>
+        <v>-0.02001693141650883</v>
       </c>
       <c r="AM74">
-        <v>-0.01083368567713852</v>
+        <v>-0.01389215334134111</v>
       </c>
       <c r="AN74">
-        <v>0.09366770670033742</v>
+        <v>0.03809027171510437</v>
       </c>
       <c r="AO74">
-        <v>-0.01051958786063142</v>
+        <v>0.00486614157355001</v>
       </c>
       <c r="AP74">
-        <v>0.1423970070788567</v>
+        <v>0.06929232909158178</v>
       </c>
       <c r="AQ74">
-        <v>-0.1813602613933202</v>
+        <v>-0.1502457505331525</v>
       </c>
       <c r="AR74">
         <v>0</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>-0.0958837000482107</v>
-      </c>
       <c r="AI75">
-        <v>-0.05385331102479584</v>
+        <v>-0.05600720905654948</v>
       </c>
       <c r="AJ75">
-        <v>-0.01649959610019361</v>
+        <v>-0.04469022143450542</v>
       </c>
       <c r="AK75">
-        <v>-0.1047414789383145</v>
+        <v>-0.005287457609015588</v>
       </c>
       <c r="AL75">
-        <v>-0.01257694391572108</v>
+        <v>-0.01742612739983341</v>
       </c>
       <c r="AM75">
-        <v>-0.04229996799922067</v>
+        <v>-0.01002404225271665</v>
       </c>
       <c r="AN75">
-        <v>-0.06272237598277355</v>
+        <v>-0.09287601411350765</v>
       </c>
       <c r="AO75">
-        <v>-0.02023098919030944</v>
+        <v>-0.03131340836289269</v>
       </c>
       <c r="AP75">
-        <v>0.08370791838206702</v>
+        <v>0.01934997978508554</v>
       </c>
       <c r="AQ75">
-        <v>-0.07125262202772548</v>
+        <v>-0.0839027182503158</v>
       </c>
       <c r="AR75">
-        <v>-0.01480819732384536</v>
+        <v>-0.1406608243777576</v>
       </c>
       <c r="AS75">
         <v>0.4</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>-0.05395894109073809</v>
-      </c>
       <c r="AJ76">
-        <v>-0.01650094223247683</v>
+        <v>-0.04598017447562881</v>
       </c>
       <c r="AK76">
-        <v>-0.02969874914636052</v>
+        <v>-0.00361579441443683</v>
       </c>
       <c r="AL76">
-        <v>-0.01208597964220981</v>
+        <v>-0.01707234181734579</v>
       </c>
       <c r="AM76">
-        <v>-0.02248328839688754</v>
+        <v>-0.009659470388358144</v>
       </c>
       <c r="AN76">
-        <v>-0.03057644687277683</v>
+        <v>-0.00607109112836501</v>
       </c>
       <c r="AO76">
-        <v>-0.03621078309394445</v>
+        <v>-0.03781913120520226</v>
       </c>
       <c r="AP76">
-        <v>-0.1325856247797595</v>
+        <v>-0.07480704140089479</v>
       </c>
       <c r="AQ76">
-        <v>0.0547280785596723</v>
+        <v>0.04092318462129406</v>
       </c>
       <c r="AR76">
-        <v>-0.03340460336359562</v>
+        <v>0.0236656033257681</v>
       </c>
       <c r="AS76">
-        <v>0.02918400950819283</v>
+        <v>0.100786433163774</v>
       </c>
       <c r="AT76">
         <v>-0.4</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>-0.01676030256108035</v>
-      </c>
       <c r="AK77">
-        <v>-0.01706279515127795</v>
+        <v>-0.004140468150098499</v>
       </c>
       <c r="AL77">
-        <v>-0.01169803884542981</v>
+        <v>-0.01770899752181545</v>
       </c>
       <c r="AM77">
-        <v>-0.01660236135380606</v>
+        <v>-0.01070200196943144</v>
       </c>
       <c r="AN77">
-        <v>0.01088100940169887</v>
+        <v>0.01534145630281639</v>
       </c>
       <c r="AO77">
-        <v>-0.028124660825586</v>
+        <v>-0.02375029606822452</v>
       </c>
       <c r="AP77">
-        <v>-0.04360209623997077</v>
+        <v>-0.02787158211986841</v>
       </c>
       <c r="AQ77">
-        <v>-0.01751295183296317</v>
+        <v>-0.01642925023096473</v>
       </c>
       <c r="AR77">
-        <v>-0.02388883075801395</v>
+        <v>0.022808088402659</v>
       </c>
       <c r="AS77">
-        <v>-0.1832684026196001</v>
+        <v>-0.2145363258946815</v>
       </c>
       <c r="AT77">
-        <v>-0.03321544329283629</v>
+        <v>-0.1470890842279522</v>
       </c>
       <c r="AU77">
         <v>-0.1</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>-0.04786269765417936</v>
-      </c>
       <c r="AL78">
-        <v>-0.01190680600704851</v>
+        <v>-0.01761900037286331</v>
       </c>
       <c r="AM78">
-        <v>-0.0244388526762473</v>
+        <v>-0.01053485780363214</v>
       </c>
       <c r="AN78">
-        <v>-0.00959642477482194</v>
+        <v>-0.01923494015782303</v>
       </c>
       <c r="AO78">
-        <v>-0.02511927150703256</v>
+        <v>-0.02575670871752969</v>
       </c>
       <c r="AP78">
-        <v>0.005589790964697972</v>
+        <v>-0.01057589158453673</v>
       </c>
       <c r="AQ78">
-        <v>-0.03801055010289923</v>
+        <v>-0.03975933494173419</v>
       </c>
       <c r="AR78">
-        <v>-0.0203220390493004</v>
+        <v>-0.02861383781479341</v>
       </c>
       <c r="AS78">
-        <v>-0.00374115555535621</v>
+        <v>-0.02135406546126113</v>
       </c>
       <c r="AT78">
-        <v>0.09936575281836432</v>
+        <v>0.1302311701533707</v>
       </c>
       <c r="AU78">
-        <v>1.303303454188581E-05</v>
+        <v>0.1715855691630325</v>
       </c>
       <c r="AV78">
         <v>0</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>-0.01195423087736996</v>
-      </c>
       <c r="AM79">
-        <v>-0.02460772606370044</v>
+        <v>-0.01031928461638769</v>
       </c>
       <c r="AN79">
-        <v>-0.01761243954506553</v>
+        <v>-0.01747266834843499</v>
       </c>
       <c r="AO79">
-        <v>-0.02876630723084341</v>
+        <v>-0.02987719372659034</v>
       </c>
       <c r="AP79">
-        <v>-0.04163829480300261</v>
+        <v>-0.03210436881813084</v>
       </c>
       <c r="AQ79">
-        <v>-0.008468855833070997</v>
+        <v>-0.01466020326488317</v>
       </c>
       <c r="AR79">
-        <v>-0.02429875049146742</v>
+        <v>-0.01423908898054457</v>
       </c>
       <c r="AS79">
-        <v>0.01947931766996934</v>
+        <v>0.02784671353399629</v>
       </c>
       <c r="AT79">
-        <v>-0.05223422598338177</v>
+        <v>-0.02659497133803108</v>
       </c>
       <c r="AU79">
-        <v>-0.004546923458420275</v>
+        <v>-0.05845964792220767</v>
       </c>
       <c r="AV79">
-        <v>-0.006125572440376981</v>
+        <v>0.1911553771161312</v>
       </c>
       <c r="AW79">
         <v>0.4</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>-0.02199424584516098</v>
-      </c>
       <c r="AN80">
-        <v>-0.009143149733573814</v>
+        <v>-0.006357319897060937</v>
       </c>
       <c r="AO80">
-        <v>-0.02869453938183161</v>
+        <v>-0.02797779353561004</v>
       </c>
       <c r="AP80">
-        <v>-0.04433554745014333</v>
+        <v>-0.03118753979187722</v>
       </c>
       <c r="AQ80">
-        <v>-0.01024348015036126</v>
+        <v>-0.01446195862868065</v>
       </c>
       <c r="AR80">
-        <v>-0.02443410403539463</v>
+        <v>-0.002017287274968147</v>
       </c>
       <c r="AS80">
-        <v>-0.04638488922157161</v>
+        <v>-0.05152201228377164</v>
       </c>
       <c r="AT80">
-        <v>-0.05146153628560422</v>
+        <v>-0.07069217907296647</v>
       </c>
       <c r="AU80">
-        <v>-0.03675340365231727</v>
+        <v>-0.08349855235186215</v>
       </c>
       <c r="AV80">
-        <v>-0.03696844328440692</v>
+        <v>-0.085634867014119</v>
       </c>
       <c r="AW80">
-        <v>0.04879937325030748</v>
+        <v>-0.08022259161486719</v>
       </c>
       <c r="AX80">
         <v>0.8</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>-0.008715012918029754</v>
-      </c>
       <c r="AO81">
-        <v>-0.02747723668897951</v>
+        <v>-0.02716146864578724</v>
       </c>
       <c r="AP81">
-        <v>-0.02663382742006715</v>
+        <v>-0.02411990500031771</v>
       </c>
       <c r="AQ81">
-        <v>-0.01940642998223996</v>
+        <v>-0.0225482645483556</v>
       </c>
       <c r="AR81">
-        <v>-0.02311785680070618</v>
+        <v>-0.009888564199399727</v>
       </c>
       <c r="AS81">
-        <v>-0.03669841911452847</v>
+        <v>-0.044736798156182</v>
       </c>
       <c r="AT81">
-        <v>-0.004279712600035457</v>
+        <v>-0.008918606163630513</v>
       </c>
       <c r="AU81">
-        <v>-0.02642476914539064</v>
+        <v>-0.004097621534442319</v>
       </c>
       <c r="AV81">
-        <v>-0.02841000720473891</v>
+        <v>-0.09627906030867385</v>
       </c>
       <c r="AW81">
-        <v>-0.1768638039877852</v>
+        <v>-0.1578195895495378</v>
       </c>
       <c r="AX81">
-        <v>0.0477695913607396</v>
+        <v>-0.3154872179965899</v>
       </c>
       <c r="AY81">
         <v>0.8</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>-0.02786630790584457</v>
-      </c>
       <c r="AP82">
-        <v>-0.03123983128401425</v>
+        <v>-0.02667502192169701</v>
       </c>
       <c r="AQ82">
-        <v>-0.01619324504613254</v>
+        <v>-0.0202711513367729</v>
       </c>
       <c r="AR82">
-        <v>-0.02340993730170112</v>
+        <v>-0.0115714577654362</v>
       </c>
       <c r="AS82">
-        <v>-0.01734715070464835</v>
+        <v>-0.02006041293507299</v>
       </c>
       <c r="AT82">
-        <v>-0.0176623601961736</v>
+        <v>-0.01212566576395684</v>
       </c>
       <c r="AU82">
-        <v>-0.018475421778123</v>
+        <v>-0.01718855658572024</v>
       </c>
       <c r="AV82">
-        <v>-0.01965456204274917</v>
+        <v>0.0003486772119304579</v>
       </c>
       <c r="AW82">
-        <v>0.00420546911993263</v>
+        <v>0.02845832581881534</v>
       </c>
       <c r="AX82">
-        <v>-0.2822096778751681</v>
+        <v>-0.2268179819700687</v>
       </c>
       <c r="AY82">
-        <v>0.4714513528429705</v>
+        <v>-0.37563386817659</v>
       </c>
       <c r="AZ82">
         <v>-0.9</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>-0.03610771696782248</v>
-      </c>
       <c r="AQ83">
-        <v>-0.01411606701792224</v>
+        <v>-0.01834353033846795</v>
       </c>
       <c r="AR83">
-        <v>-0.02375967971164842</v>
+        <v>-0.008635445044325219</v>
       </c>
       <c r="AS83">
-        <v>-0.02568528612890706</v>
+        <v>-0.0295901277014535</v>
       </c>
       <c r="AT83">
-        <v>-0.02868620774471301</v>
+        <v>-0.03074979964726661</v>
       </c>
       <c r="AU83">
-        <v>-0.02410309360241812</v>
+        <v>-0.03884277971459891</v>
       </c>
       <c r="AV83">
-        <v>-0.02441650263362991</v>
+        <v>-0.01509014672065998</v>
       </c>
       <c r="AW83">
-        <v>0.04591711456951489</v>
+        <v>0.01732431464982859</v>
       </c>
       <c r="AX83">
-        <v>0.03999695966618477</v>
+        <v>0.1649447625093316</v>
       </c>
       <c r="AY83">
-        <v>-0.2493172945413686</v>
+        <v>-0.1986260635473235</v>
       </c>
       <c r="AZ83">
-        <v>-0.02605454389395597</v>
+        <v>-0.007479263163498756</v>
       </c>
       <c r="BA83">
         <v>0.5</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>-0.01576483294381224</v>
-      </c>
       <c r="AR84">
-        <v>-0.02357633880410836</v>
+        <v>-0.008911772636133568</v>
       </c>
       <c r="AS84">
-        <v>-0.02991890560509818</v>
+        <v>-0.03508224288062149</v>
       </c>
       <c r="AT84">
-        <v>-0.02143182553559243</v>
+        <v>-0.02457005791438902</v>
       </c>
       <c r="AU84">
-        <v>-0.02522375396250291</v>
+        <v>-0.02897106797450482</v>
       </c>
       <c r="AV84">
-        <v>-0.02641315388590836</v>
+        <v>-0.04504191774668338</v>
       </c>
       <c r="AW84">
-        <v>-0.03035415023084582</v>
+        <v>-0.04638097768364526</v>
       </c>
       <c r="AX84">
-        <v>0.09476369949832648</v>
+        <v>0.04947379318571581</v>
       </c>
       <c r="AY84">
-        <v>-0.08212390674436575</v>
+        <v>0.1604370303980045</v>
       </c>
       <c r="AZ84">
-        <v>0.3326063340804278</v>
+        <v>0.3281254779075455</v>
       </c>
       <c r="BA84">
-        <v>0.04549112474043772</v>
+        <v>0.04671359783540194</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>-0.02351037475775375</v>
-      </c>
       <c r="AS85">
-        <v>-0.02602576647383199</v>
+        <v>-0.03026648867598069</v>
       </c>
       <c r="AT85">
-        <v>-0.0200057592447461</v>
+        <v>-0.02040119451064939</v>
       </c>
       <c r="AU85">
-        <v>-0.02303505539065857</v>
+        <v>-0.02473311773013382</v>
       </c>
       <c r="AV85">
-        <v>-0.02436605357238061</v>
+        <v>-0.03385704849949254</v>
       </c>
       <c r="AW85">
-        <v>-0.02826708736316874</v>
+        <v>-0.02922298250831565</v>
       </c>
       <c r="AX85">
-        <v>-0.02719752251958586</v>
+        <v>-0.07028266210327877</v>
       </c>
       <c r="AY85">
-        <v>0.1043002604610068</v>
+        <v>0.04830061598728011</v>
       </c>
       <c r="AZ85">
-        <v>-0.06557087603733683</v>
+        <v>-0.06951637308132015</v>
       </c>
       <c r="BA85">
-        <v>-0.161226410811017</v>
+        <v>-0.1561314660487535</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>-0.02564648222236417</v>
-      </c>
       <c r="AT86">
-        <v>-0.02267099595604196</v>
+        <v>-0.02350984479296453</v>
       </c>
       <c r="AU86">
-        <v>-0.02325847477310742</v>
+        <v>-0.0289775311151392</v>
       </c>
       <c r="AV86">
-        <v>-0.02411214096409488</v>
+        <v>-0.02583606886049161</v>
       </c>
       <c r="AW86">
-        <v>-0.0006389030463489001</v>
+        <v>-0.01020517011477914</v>
       </c>
       <c r="AX86">
-        <v>-0.0235900056786655</v>
+        <v>-0.00246507095807497</v>
       </c>
       <c r="AY86">
-        <v>0.0378242152091114</v>
+        <v>-0.05262082029652802</v>
       </c>
       <c r="AZ86">
-        <v>-0.1184782261500207</v>
+        <v>-0.1126667394120761</v>
       </c>
       <c r="BA86">
-        <v>0.02626493040819354</v>
+        <v>0.03072172394820536</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>-0.02237452793168867</v>
-      </c>
       <c r="AU87">
-        <v>-0.02392949273071728</v>
+        <v>-0.02919500143598848</v>
       </c>
       <c r="AV87">
-        <v>-0.02486550295596796</v>
+        <v>-0.03123912148076069</v>
       </c>
       <c r="AW87">
-        <v>-0.007731812463237902</v>
+        <v>-0.02022996390699931</v>
       </c>
       <c r="AX87">
-        <v>0.01806232377076252</v>
+        <v>0.0272664097564083</v>
       </c>
       <c r="AY87">
-        <v>-0.007997119678224668</v>
+        <v>-0.0006348459749519995</v>
       </c>
       <c r="AZ87">
-        <v>0.04054514790524665</v>
+        <v>0.04289364561388963</v>
       </c>
       <c r="BA87">
-        <v>0.05675781007361306</v>
+        <v>0.05980389894427397</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>-0.02367134455721135</v>
-      </c>
       <c r="AV88">
-        <v>-0.02479447385193859</v>
+        <v>-0.03291182511181732</v>
       </c>
       <c r="AW88">
-        <v>-0.01628927427765288</v>
+        <v>-0.02489052070549057</v>
       </c>
       <c r="AX88">
-        <v>0.009088070922333692</v>
+        <v>-0.003978077445998826</v>
       </c>
       <c r="AY88">
-        <v>0.01551425727787895</v>
+        <v>0.02464929496834878</v>
       </c>
       <c r="AZ88">
-        <v>0.02802976431545098</v>
+        <v>0.02723532364697859</v>
       </c>
       <c r="BA88">
-        <v>-0.009924777126187743</v>
+        <v>-0.006508259590151697</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>-0.02455169240883805</v>
-      </c>
       <c r="AW89">
-        <v>-0.01171682185774142</v>
+        <v>-0.02037128280784999</v>
       </c>
       <c r="AX89">
-        <v>-0.003701656698807592</v>
+        <v>-0.008312844525119134</v>
       </c>
       <c r="AY89">
-        <v>0.02603684445349861</v>
+        <v>0.003786327779940737</v>
       </c>
       <c r="AZ89">
-        <v>-0.02866355762159044</v>
+        <v>-0.027013620725811</v>
       </c>
       <c r="BA89">
-        <v>-0.006828468081192191</v>
+        <v>-0.002914314149554297</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-0.009609995668595293</v>
-      </c>
       <c r="AX90">
-        <v>0.001783696449917409</v>
+        <v>0.004102089975922885</v>
       </c>
       <c r="AY90">
-        <v>0.01830760690027328</v>
+        <v>-0.001367947262063898</v>
       </c>
       <c r="AZ90">
-        <v>-0.01251503272655262</v>
+        <v>-0.0102171684780633</v>
       </c>
       <c r="BA90">
-        <v>0.01417471096306536</v>
+        <v>0.01788583078468521</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.005204802065304675</v>
-      </c>
       <c r="AY91">
-        <v>0.01613151884740114</v>
+        <v>0.006253036325188952</v>
       </c>
       <c r="AZ91">
-        <v>0.005328734727959953</v>
+        <v>0.006399319939384338</v>
       </c>
       <c r="BA91">
-        <v>0.009084317856510267</v>
+        <v>0.01263446204522371</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.01854009508926177</v>
-      </c>
       <c r="AZ92">
-        <v>-0.00430134781753219</v>
+        <v>-0.003175618524994913</v>
       </c>
       <c r="BA92">
-        <v>0.003269690306833764</v>
+        <v>0.006920169851751718</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.00899613124520263</v>
-      </c>
       <c r="BA93">
-        <v>0.006050531174156349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.007393374543139403</v>
+        <v>0.009745738145422463</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_INVINV_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>-1</v>
       </c>
+      <c r="BB2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>0.5</v>
       </c>
+      <c r="BB3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-0.4</v>
       </c>
+      <c r="BB4">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>0.2</v>
       </c>
+      <c r="BB5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-0.2</v>
       </c>
+      <c r="BB6">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>0</v>
       </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>-1.6</v>
       </c>
+      <c r="BB8">
+        <v>-1.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>1.2</v>
       </c>
+      <c r="BB9">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>-0.5</v>
       </c>
+      <c r="BB10">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>1</v>
       </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>0.3</v>
       </c>
+      <c r="BB12">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>-0.4</v>
       </c>
+      <c r="BB13">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.2</v>
       </c>
+      <c r="BB14">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>-0.3</v>
       </c>
+      <c r="BB15">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>1.2</v>
       </c>
+      <c r="BB16">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>-0.7</v>
       </c>
+      <c r="BB17">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>-0.2</v>
       </c>
+      <c r="BB18">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>-0.3</v>
       </c>
+      <c r="BB19">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>-0.6</v>
       </c>
+      <c r="BB20">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.4</v>
       </c>
+      <c r="BB21">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>0.5</v>
       </c>
+      <c r="BB22">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0</v>
       </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>-0.1</v>
       </c>
+      <c r="BB24">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>0.3</v>
       </c>
+      <c r="BB25">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.1</v>
       </c>
+      <c r="BB26">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0</v>
       </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.4</v>
       </c>
+      <c r="BB28">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>-0.7</v>
       </c>
+      <c r="BB29">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0</v>
       </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>-0.1</v>
       </c>
+      <c r="BB31">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>-0.5</v>
       </c>
+      <c r="BB32">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.2</v>
       </c>
+      <c r="BB33">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.1</v>
       </c>
+      <c r="BB34">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>-0.4</v>
       </c>
+      <c r="BB35">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0</v>
       </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.3</v>
       </c>
+      <c r="BB37">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.4</v>
       </c>
+      <c r="BB38">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>-0.5</v>
       </c>
+      <c r="BB39">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.2</v>
       </c>
+      <c r="BB40">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.1</v>
       </c>
+      <c r="BB41">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>-0.1</v>
       </c>
+      <c r="BB42">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>-0.1</v>
       </c>
+      <c r="BB43">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>0.3</v>
       </c>
+      <c r="BB44">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>0.4</v>
       </c>
+      <c r="BB45">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>-0.1</v>
       </c>
+      <c r="BB46">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>-0.8</v>
       </c>
+      <c r="BB47">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>0.2</v>
       </c>
+      <c r="BB48">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>-0.9</v>
       </c>
+      <c r="BB49">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0.3</v>
       </c>
+      <c r="BB50">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>0.1</v>
       </c>
+      <c r="BB51">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-0.1</v>
       </c>
+      <c r="BB52">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>-1.9</v>
       </c>
+      <c r="BB53">
+        <v>-1.9</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>0.5</v>
       </c>
+      <c r="BB54">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>2.2</v>
       </c>
+      <c r="BB55">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>-0.9</v>
       </c>
+      <c r="BB56">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>0.1</v>
       </c>
+      <c r="BB57">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>0.2</v>
       </c>
+      <c r="BB58">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>-0.3</v>
       </c>
+      <c r="BB59">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>0.7</v>
       </c>
+      <c r="BB60">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>0.2</v>
       </c>
+      <c r="BB61">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>0.4</v>
       </c>
+      <c r="BB62">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-0.1</v>
       </c>
+      <c r="BB63">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>0.2</v>
       </c>
+      <c r="BB64">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-0.6</v>
       </c>
+      <c r="BB65">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-0.7</v>
       </c>
+      <c r="BB66">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0</v>
       </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>0</v>
       </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>0.9</v>
       </c>
+      <c r="BB69">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.5</v>
       </c>
+      <c r="BB70">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>-0.4</v>
       </c>
+      <c r="BB71">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>0.5</v>
       </c>
+      <c r="BB72">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.04671359783540194</v>
       </c>
+      <c r="BB73">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>-0.1561314660487535</v>
       </c>
+      <c r="BB74">
+        <v>-0.166915309931608</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.03072172394820536</v>
       </c>
+      <c r="BB75">
+        <v>-0.0273035672071738</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.05980389894427397</v>
       </c>
+      <c r="BB76">
+        <v>0.06878353535742468</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>-0.006508259590151697</v>
       </c>
+      <c r="BB77">
+        <v>0.00284077231157528</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>-0.002914314149554297</v>
       </c>
+      <c r="BB78">
+        <v>-0.01653670234748227</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.01788583078468521</v>
       </c>
+      <c r="BB79">
+        <v>0.009488806423010147</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.01263446204522371</v>
       </c>
+      <c r="BB80">
+        <v>0.01089042766875424</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.006920169851751718</v>
       </c>
+      <c r="BB81">
+        <v>0.00184892501921626</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.009745738145422463</v>
+      </c>
+      <c r="BB82">
+        <v>0.003157254381447184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.005944842580863992</v>
       </c>
     </row>
   </sheetData>
